--- a/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
+++ b/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="453">
   <si>
     <t>Incorrect</t>
   </si>
@@ -706,13 +706,682 @@
   </si>
   <si>
     <t>pinakamagandang lugar sa mundo</t>
+  </si>
+  <si>
+    <t>f ont size</t>
+  </si>
+  <si>
+    <t>font size</t>
+  </si>
+  <si>
+    <t>Dati kilala</t>
+  </si>
+  <si>
+    <t>Dati, kilala</t>
+  </si>
+  <si>
+    <t>gumagalaw ng patindig</t>
+  </si>
+  <si>
+    <t>gumagalaw nang patindig</t>
+  </si>
+  <si>
+    <t>gumagalaw ng pahalang</t>
+  </si>
+  <si>
+    <t>gumagalaw nang pahalang</t>
+  </si>
+  <si>
+    <t>napatunayan na</t>
+  </si>
+  <si>
+    <t>napatunayang</t>
+  </si>
+  <si>
+    <t>Pagkatapos ng mahaba</t>
+  </si>
+  <si>
+    <t>Pagkatapos nang mahaba</t>
+  </si>
+  <si>
+    <t>Walang  ng natitirang</t>
+  </si>
+  <si>
+    <t>Wala nang natitirang</t>
+  </si>
+  <si>
+    <t>mayaman na pamilya</t>
+  </si>
+  <si>
+    <t>mayamang pamilya</t>
+  </si>
+  <si>
+    <t>na naghubog ng</t>
+  </si>
+  <si>
+    <t>na humubog ng</t>
+  </si>
+  <si>
+    <t>yan</t>
+  </si>
+  <si>
+    <t>iyan</t>
+  </si>
+  <si>
+    <t>insekto ng hindi</t>
+  </si>
+  <si>
+    <t>insekto nang hindi</t>
+  </si>
+  <si>
+    <t>isang mayaman na pamilya</t>
+  </si>
+  <si>
+    <t>isang mayamang pamilya</t>
+  </si>
+  <si>
+    <t>Sa panahon na ito</t>
+  </si>
+  <si>
+    <t>Sa panahong ito</t>
+  </si>
+  <si>
+    <t>mapagisa</t>
+  </si>
+  <si>
+    <t>mapag-isa</t>
+  </si>
+  <si>
+    <t>kompederasyon na ito</t>
+  </si>
+  <si>
+    <t>kompederasyong ito</t>
+  </si>
+  <si>
+    <t>Tulad sa lahat</t>
+  </si>
+  <si>
+    <t>Tulad ng lahat</t>
+  </si>
+  <si>
+    <t>Naka istasyon sa Kyoto</t>
+  </si>
+  <si>
+    <t>Nakaistasyon sa Kyoto</t>
+  </si>
+  <si>
+    <t>Ang companya mula</t>
+  </si>
+  <si>
+    <t>Ang kumpanya mula</t>
+  </si>
+  <si>
+    <t>nagsimulang mag imbento</t>
+  </si>
+  <si>
+    <t>nagsimulang mag-imbento</t>
+  </si>
+  <si>
+    <t>ang iba't-ibang mga tanawin</t>
+  </si>
+  <si>
+    <t>ang iba't ibang mga tanawin</t>
+  </si>
+  <si>
+    <t>at pinagpatuloy niya ang</t>
+  </si>
+  <si>
+    <t>at ipinagpatuloy niya ang</t>
+  </si>
+  <si>
+    <t>pagaaral ng musika</t>
+  </si>
+  <si>
+    <t>pag-aaral ng musika</t>
+  </si>
+  <si>
+    <t>nahihiya siya sa magperform</t>
+  </si>
+  <si>
+    <t>nahihiya siya sa mag-perform</t>
+  </si>
+  <si>
+    <t>tinangal sa kanyang leeg</t>
+  </si>
+  <si>
+    <t>tinanggal sa kanyang leeg</t>
+  </si>
+  <si>
+    <t>kasing haba ng libro</t>
+  </si>
+  <si>
+    <t>kasing-haba ng libro</t>
+  </si>
+  <si>
+    <t>posible palang makita ang</t>
+  </si>
+  <si>
+    <t>posible pa lang makita ang</t>
+  </si>
+  <si>
+    <t>ng industriyang paglalathala</t>
+  </si>
+  <si>
+    <t>ng industriya ng paglalathala</t>
+  </si>
+  <si>
+    <t>languages si IBM researcher</t>
+  </si>
+  <si>
+    <t>languages ang IBM researcher</t>
+  </si>
+  <si>
+    <t>sa kalidad na pangpropesyunal</t>
+  </si>
+  <si>
+    <t>sa kalidad na pampropesyunal</t>
+  </si>
+  <si>
+    <t>nagusto nila ,</t>
+  </si>
+  <si>
+    <t>na gusto nila ,</t>
+  </si>
+  <si>
+    <t>ang teksto sa paagitan</t>
+  </si>
+  <si>
+    <t>ang teksto sa pagitan</t>
+  </si>
+  <si>
+    <t>ng iba-ibang bahagi ng</t>
+  </si>
+  <si>
+    <t>ng iba't ibang bahagi ng</t>
+  </si>
+  <si>
+    <t>istilo ang isang</t>
+  </si>
+  <si>
+    <t>estilo ang isang</t>
+  </si>
+  <si>
+    <t>pangunahing kadahilan ang paggamit</t>
+  </si>
+  <si>
+    <t>pangunahing kadahilanan ang paggamit</t>
+  </si>
+  <si>
+    <t>na pamiliar mula_sa</t>
+  </si>
+  <si>
+    <t>na pamilyar mula_sa</t>
+  </si>
+  <si>
+    <t>pagkakabuo ang_mga dokumentong</t>
+  </si>
+  <si>
+    <t>pagkakabuo ng_mga dokumentong</t>
+  </si>
+  <si>
+    <t>estadistika ng hindi lalagpas</t>
+  </si>
+  <si>
+    <t>estadistika nang hindi lalagpas</t>
+  </si>
+  <si>
+    <t>magka-ugnay na gamit</t>
+  </si>
+  <si>
+    <t>magkaugnay na gamit</t>
+  </si>
+  <si>
+    <t>konsepto ng pagkaka-ugnay</t>
+  </si>
+  <si>
+    <t>konsepto ng pagkakaugnay</t>
+  </si>
+  <si>
+    <t>Nagkaka-iba ang dalawang uri</t>
+  </si>
+  <si>
+    <t>Nagkakaiba ang dalawang uri</t>
+  </si>
+  <si>
+    <t>sa_pagitan_ng predictor at response</t>
+  </si>
+  <si>
+    <t>sa_pagitan_ng prediktor at response</t>
+  </si>
+  <si>
+    <t>pagkatapos tinignan ang bilang</t>
+  </si>
+  <si>
+    <t>pagkatapos tinitingnan ang bilang</t>
+  </si>
+  <si>
+    <t>sa struktura ng dahon</t>
+  </si>
+  <si>
+    <t>sa istruktura ng dahon</t>
+  </si>
+  <si>
+    <t>Ang pinaka marami</t>
+  </si>
+  <si>
+    <t>Ang pinakamarami</t>
+  </si>
+  <si>
+    <t>ang simplen dahon</t>
+  </si>
+  <si>
+    <t>ang simpleng dahon</t>
+  </si>
+  <si>
+    <t>Mayroong buong paghahati</t>
+  </si>
+  <si>
+    <t>May buong paghahati</t>
+  </si>
+  <si>
+    <t>ang pag-kain ng_mga protina</t>
+  </si>
+  <si>
+    <t>ang pagkain ng_mga protina</t>
+  </si>
+  <si>
+    <t>pagkakaroonng hindi kaaya-ayang lasa</t>
+  </si>
+  <si>
+    <t>pagkakaroon ng hindi kaaya-ayang lasa</t>
+  </si>
+  <si>
+    <t>naka diskubre ng paraan</t>
+  </si>
+  <si>
+    <t>nakadiskubre ng paraan</t>
+  </si>
+  <si>
+    <t>ginagamit parin ang</t>
+  </si>
+  <si>
+    <t>ginagamit pa rin ang</t>
+  </si>
+  <si>
+    <t>ang opisinita nito</t>
+  </si>
+  <si>
+    <t>ang opisina nito</t>
+  </si>
+  <si>
+    <t>nadismiss ang teoryang</t>
+  </si>
+  <si>
+    <t>na-dismiss ang teoryang</t>
+  </si>
+  <si>
+    <t>ang nagiisang pinagkukunan</t>
+  </si>
+  <si>
+    <t>ang nag-iisang pinagkukunan</t>
+  </si>
+  <si>
+    <t>isang gabi ng pagiisip</t>
+  </si>
+  <si>
+    <t>isang gabi ng pag-iisip</t>
+  </si>
+  <si>
+    <t>Pag pinagsama-sama ,</t>
+  </si>
+  <si>
+    <t>Kapag pinagsama-sama ,</t>
+  </si>
+  <si>
+    <t>minumungkahi netong ebidensya</t>
+  </si>
+  <si>
+    <t>minumungkahi nitong ebidensya</t>
+  </si>
+  <si>
+    <t>Sa_pamamgitan_ng karahasan</t>
+  </si>
+  <si>
+    <t>Sa_pamamagitan_ng karahasan</t>
+  </si>
+  <si>
+    <t>nagdeklara ngbatas</t>
+  </si>
+  <si>
+    <t>nagdeklara ng batas</t>
+  </si>
+  <si>
+    <t>military ang komandanteng</t>
+  </si>
+  <si>
+    <t>militar ang komandanteng</t>
+  </si>
+  <si>
+    <t>sa timogkanluran papunta_sa</t>
+  </si>
+  <si>
+    <t>sa timog kanluran papunta_sa</t>
+  </si>
+  <si>
+    <t>1966 , nagbida siya</t>
+  </si>
+  <si>
+    <t>1966 , bumida siya</t>
+  </si>
+  <si>
+    <t>sa pag tuyo para_sa</t>
+  </si>
+  <si>
+    <t>sa pagtuyo para_sa</t>
+  </si>
+  <si>
+    <t>ang pagaani ng_mga insekto</t>
+  </si>
+  <si>
+    <t>ang pag-aani ng_mga insekto</t>
+  </si>
+  <si>
+    <t>pinaka epektibo at ligtas</t>
+  </si>
+  <si>
+    <t>pinakaepektibo at ligtas</t>
+  </si>
+  <si>
+    <t>ang patuloy na pagiinom</t>
+  </si>
+  <si>
+    <t>ang patuloy na pag-iinom</t>
+  </si>
+  <si>
+    <t>katulad na ni Howard Sturges</t>
+  </si>
+  <si>
+    <t>katulad ni Howard Sturges</t>
+  </si>
+  <si>
+    <t>isang lingo ng karahasan</t>
+  </si>
+  <si>
+    <t>isang linggo ng karahasan</t>
+  </si>
+  <si>
+    <t>nagiwan ng daan-daang patay</t>
+  </si>
+  <si>
+    <t>nag-iwan ng daan-daang patay</t>
+  </si>
+  <si>
+    <t>mapagsama sama ang_mga armed forces</t>
+  </si>
+  <si>
+    <t>mapagsama-sama ang_mga armed forces</t>
+  </si>
+  <si>
+    <t>ng dalwang estado</t>
+  </si>
+  <si>
+    <t>ng dalawang estado</t>
+  </si>
+  <si>
+    <t>bobota para_sa kanya</t>
+  </si>
+  <si>
+    <t>boboto para_sa kanya</t>
+  </si>
+  <si>
+    <t>ang akulong nang magsimula</t>
+  </si>
+  <si>
+    <t>ang nakulong nang magsimula</t>
+  </si>
+  <si>
+    <t>labag_sa batas na pagaaresto</t>
+  </si>
+  <si>
+    <t>labag_sa batas na pag-aaresto</t>
+  </si>
+  <si>
+    <t>nungg unang panahon</t>
+  </si>
+  <si>
+    <t>nung unang panahon</t>
+  </si>
+  <si>
+    <t>intension na isali</t>
+  </si>
+  <si>
+    <t>intensyon na isali</t>
+  </si>
+  <si>
+    <t>nagayos si Baron_de_Coubertin</t>
+  </si>
+  <si>
+    <t>nag-ayos si Baron_de_Coubertin</t>
+  </si>
+  <si>
+    <t>Paligsahan anfg tema</t>
+  </si>
+  <si>
+    <t>Paligsahan ang tema</t>
+  </si>
+  <si>
+    <t>nakulang sila sa oras</t>
+  </si>
+  <si>
+    <t>nagkulang sila sa oras</t>
+  </si>
+  <si>
+    <t>pinaghinaan ng loob</t>
+  </si>
+  <si>
+    <t>pinanghinaan ng loob</t>
+  </si>
+  <si>
+    <t>ang sinerioso nila ang</t>
+  </si>
+  <si>
+    <t>ang sineryoso nila ang</t>
+  </si>
+  <si>
+    <t>ang competisyon at</t>
+  </si>
+  <si>
+    <t>ang kumpetisyon at</t>
+  </si>
+  <si>
+    <t>propesyonal ang ma sumasali</t>
+  </si>
+  <si>
+    <t>propesyonal ang mga sumasali</t>
+  </si>
+  <si>
+    <t>apela ng naturang exhibition</t>
+  </si>
+  <si>
+    <t>apila ng naturang exhibition</t>
+  </si>
+  <si>
+    <t>hindi parin matuturing</t>
+  </si>
+  <si>
+    <t>hindi pa rin matuturing</t>
+  </si>
+  <si>
+    <t>ngunit natangal ito</t>
+  </si>
+  <si>
+    <t>ngunit natanggal ito</t>
+  </si>
+  <si>
+    <t>Mayroong din na hindi</t>
+  </si>
+  <si>
+    <t>Mayroong ding hindi</t>
+  </si>
+  <si>
+    <t>Nanatili parin ang</t>
+  </si>
+  <si>
+    <t>Nanatili pa rin ang</t>
+  </si>
+  <si>
+    <t>pang-kultura ang ginawa</t>
+  </si>
+  <si>
+    <t>pangkultura ang ginawa</t>
+  </si>
+  <si>
+    <t>nasira ng tuluyan</t>
+  </si>
+  <si>
+    <t>nasira nang tuluyan</t>
+  </si>
+  <si>
+    <t>ang pinaka matandang pinanggalingan</t>
+  </si>
+  <si>
+    <t>ang pinakamatandang pinanggalingan</t>
+  </si>
+  <si>
+    <t>nung panahon na iyon</t>
+  </si>
+  <si>
+    <t>nang panahon na iyon</t>
+  </si>
+  <si>
+    <t>sa pag ipon ng pondo</t>
+  </si>
+  <si>
+    <t>sa pag-ipon ng pondo</t>
+  </si>
+  <si>
+    <t>para pagtignan ng publiko</t>
+  </si>
+  <si>
+    <t>para matingnan ng publiko</t>
+  </si>
+  <si>
+    <t>myembro ng prestihiyosong pamilyang</t>
+  </si>
+  <si>
+    <t>miyembro ng prestihiyosong pamilyang</t>
+  </si>
+  <si>
+    <t>Nakapag aral siya sa militar</t>
+  </si>
+  <si>
+    <t>Nakapag-aral siya sa militar</t>
+  </si>
+  <si>
+    <t>pagtatapos ng malaman na bumagsak</t>
+  </si>
+  <si>
+    <t>pagtatapos nang malaman na bumagsak</t>
+  </si>
+  <si>
+    <t>Mabilisan sila nakapagtayo</t>
+  </si>
+  <si>
+    <t>Mabilisan silang nakapagtayo</t>
+  </si>
+  <si>
+    <t>Nag silbi siya sa</t>
+  </si>
+  <si>
+    <t>Nagsilbi siya sa</t>
+  </si>
+  <si>
+    <t>katulad ng pagiisip natin</t>
+  </si>
+  <si>
+    <t>katulad ng pag-iisip natin</t>
+  </si>
+  <si>
+    <t>Kung kung masaktan</t>
+  </si>
+  <si>
+    <t>umakyat ng patayo</t>
+  </si>
+  <si>
+    <t>umakyat nang patayo</t>
+  </si>
+  <si>
+    <t>masmalaki pa sa</t>
+  </si>
+  <si>
+    <t>mas malaki pa sa</t>
+  </si>
+  <si>
+    <t>kahit anung organic</t>
+  </si>
+  <si>
+    <t>kahit anong organic</t>
+  </si>
+  <si>
+    <t>ang masmaliit na sipit</t>
+  </si>
+  <si>
+    <t>ang mas maliit na sipit</t>
+  </si>
+  <si>
+    <t>ang putting laman ng niyog</t>
+  </si>
+  <si>
+    <t>ang puting laman ng niyog</t>
+  </si>
+  <si>
+    <t>huminga ng masmadali</t>
+  </si>
+  <si>
+    <t>huminga ng mas madali</t>
+  </si>
+  <si>
+    <t>Ang pag aaral sa sekswalidad</t>
+  </si>
+  <si>
+    <t>Ang pag-aaral sa sekswalidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sa mga pagkaka-iba nito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sa mga pagkakaiba nito</t>
+  </si>
+  <si>
+    <t>pag-kuha ng deposito</t>
+  </si>
+  <si>
+    <t>pagkuha ng deposito</t>
+  </si>
+  <si>
+    <t>pinaka bagong uri ng</t>
+  </si>
+  <si>
+    <t>pinakabagong uri ng</t>
+  </si>
+  <si>
+    <t>ang pagka-ayon ng limang dahon</t>
+  </si>
+  <si>
+    <t>ang pagkaayon ng limang dahon</t>
+  </si>
+  <si>
+    <t>pangtukoy ng kaliwa</t>
+  </si>
+  <si>
+    <t>pantukoy ng kaliwa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +1397,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -737,7 +1413,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -760,11 +1436,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -787,6 +1478,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,6 +2725,918 @@
       </c>
       <c r="B115" s="6" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
+++ b/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="657">
   <si>
     <t>Incorrect</t>
   </si>
@@ -60,24 +60,6 @@
     <t>Minsan, kailangan</t>
   </si>
   <si>
-    <t>ko na</t>
-  </si>
-  <si>
-    <t>kong</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>nang</t>
-  </si>
-  <si>
-    <t>sumisikap</t>
-  </si>
-  <si>
-    <t>nagsisikap</t>
-  </si>
-  <si>
     <t>sugatan na bata</t>
   </si>
   <si>
@@ -90,12 +72,6 @@
     <t>mahinang biktima</t>
   </si>
   <si>
-    <t>baybaying dagat</t>
-  </si>
-  <si>
-    <t>baybaying-dagat</t>
-  </si>
-  <si>
     <t>ang iba't-ibang anyo</t>
   </si>
   <si>
@@ -369,12 +345,6 @@
     <t>hindi tayo sang-ayon</t>
   </si>
   <si>
-    <t>ng karapatan na mabuhay.</t>
-  </si>
-  <si>
-    <t>ng karapatang mabuhay.</t>
-  </si>
-  <si>
     <t>Kung kung saktan</t>
   </si>
   <si>
@@ -399,12 +369,6 @@
     <t>na may mas maliwanang</t>
   </si>
   <si>
-    <t>ang ibigsabihin.</t>
-  </si>
-  <si>
-    <t>ang ibig sabihin.</t>
-  </si>
-  <si>
     <t>ito'y napaka-liit</t>
   </si>
   <si>
@@ -432,12 +396,6 @@
     <t>elektron, nagkakaroon ng</t>
   </si>
   <si>
-    <t>galing sa local</t>
-  </si>
-  <si>
-    <t>galing sa lokal</t>
-  </si>
-  <si>
     <t>Hindi possibleng mahawaan</t>
   </si>
   <si>
@@ -642,12 +600,6 @@
     <t>Pampook na komersyal</t>
   </si>
   <si>
-    <t>ang possibleng pagliliit ng militar</t>
-  </si>
-  <si>
-    <t>ang posibleng pagliliit ng militar</t>
-  </si>
-  <si>
     <t>Islam ang naaiwang 21 %</t>
   </si>
   <si>
@@ -696,12 +648,6 @@
     <t>pinakamataas na kabisera</t>
   </si>
   <si>
-    <t>sa pinaka-edukado at</t>
-  </si>
-  <si>
-    <t>sa pinakaedukado at</t>
-  </si>
-  <si>
     <t>pinaka-magandang lugar sa mundo</t>
   </si>
   <si>
@@ -813,9 +759,6 @@
     <t>Ang companya mula</t>
   </si>
   <si>
-    <t>Ang kumpanya mula</t>
-  </si>
-  <si>
     <t>nagsimulang mag imbento</t>
   </si>
   <si>
@@ -894,12 +837,6 @@
     <t>ang teksto sa pagitan</t>
   </si>
   <si>
-    <t>ng iba-ibang bahagi ng</t>
-  </si>
-  <si>
-    <t>ng iba't ibang bahagi ng</t>
-  </si>
-  <si>
     <t>istilo ang isang</t>
   </si>
   <si>
@@ -1375,6 +1312,681 @@
   </si>
   <si>
     <t>pantukoy ng kaliwa</t>
+  </si>
+  <si>
+    <t>NNC CCP NNC</t>
+  </si>
+  <si>
+    <t>kondisyon na mahal</t>
+  </si>
+  <si>
+    <t>NNC CCP PRSP_CCP</t>
+  </si>
+  <si>
+    <t>taon na akin</t>
+  </si>
+  <si>
+    <t>akin mahal doon</t>
+  </si>
+  <si>
+    <t>PRSP_CCP NNC PRL</t>
+  </si>
+  <si>
+    <t>DTC ? NNC</t>
+  </si>
+  <si>
+    <t>ang iba anyo</t>
+  </si>
+  <si>
+    <t>CCB DTC ? CCA</t>
+  </si>
+  <si>
+    <t>sama ang isa at</t>
+  </si>
+  <si>
+    <t>CCT ? CCB</t>
+  </si>
+  <si>
+    <t>CCP ? PRS_CCP NNC</t>
+  </si>
+  <si>
+    <t>na meron ako kailangan</t>
+  </si>
+  <si>
+    <t>RBW VBS</t>
+  </si>
+  <si>
+    <t>? DTC PRSP_CCP</t>
+  </si>
+  <si>
+    <t>suko ang akin</t>
+  </si>
+  <si>
+    <t>CCA ? VBW JJD PMC</t>
+  </si>
+  <si>
+    <t>At saakin galing ,</t>
+  </si>
+  <si>
+    <t>RBF PRS VBS CCP</t>
+  </si>
+  <si>
+    <t>RBD CCP VBAF</t>
+  </si>
+  <si>
+    <t>lagi na pili</t>
+  </si>
+  <si>
+    <t>VBS PRS CCP DTC</t>
+  </si>
+  <si>
+    <t>CCT PRI_CCP NNC</t>
+  </si>
+  <si>
+    <t>o pa probinsiya</t>
+  </si>
+  <si>
+    <t>RBW ? PRS PRS</t>
+  </si>
+  <si>
+    <t>JJD CCP NNC</t>
+  </si>
+  <si>
+    <t>sugat na bata</t>
+  </si>
+  <si>
+    <t>hina na biktima</t>
+  </si>
+  <si>
+    <t>PRSP_CCP ? NNC</t>
+  </si>
+  <si>
+    <t>akin ungang beses</t>
+  </si>
+  <si>
+    <t>CCR_CCA RBD PRS_CCP VBAF</t>
+  </si>
+  <si>
+    <t>pagka_at dunong ako langoy</t>
+  </si>
+  <si>
+    <t>VBOF PRS VBAF</t>
+  </si>
+  <si>
+    <t>subok ko mahal</t>
+  </si>
+  <si>
+    <t>NNC ? RBT</t>
+  </si>
+  <si>
+    <t>nais nalang mismo</t>
+  </si>
+  <si>
+    <t>? CCB NNC</t>
+  </si>
+  <si>
+    <t>bukas ng nais</t>
+  </si>
+  <si>
+    <t>? PRO DTC</t>
+  </si>
+  <si>
+    <t>gabay nito ang</t>
+  </si>
+  <si>
+    <t>? PRS_CCP VBAF DTC</t>
+  </si>
+  <si>
+    <t>payag ko nais ang</t>
+  </si>
+  <si>
+    <t>DTC NNC PRS CCP</t>
+  </si>
+  <si>
+    <t>? PRS</t>
+  </si>
+  <si>
+    <t>? DTCP NNC</t>
+  </si>
+  <si>
+    <t>RBW RBI JJD RBI PRS</t>
+  </si>
+  <si>
+    <t>ngayon na tanda na ako</t>
+  </si>
+  <si>
+    <t>RBI ? DTC</t>
+  </si>
+  <si>
+    <t>NNC PMC CCP CCT PRI</t>
+  </si>
+  <si>
+    <t>yari , na sa lahat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? CCB NNC CCB NNC </t>
+  </si>
+  <si>
+    <t>kakayan ng likas ng tao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DTC VBRF ? CCB PRSP_CCP</t>
+  </si>
+  <si>
+    <t>ang mula laramihan ng atin</t>
+  </si>
+  <si>
+    <t>RBW_CCP NNC PRS</t>
+  </si>
+  <si>
+    <t>Noon panahon ako</t>
+  </si>
+  <si>
+    <t>VBTR ? PRS CCP</t>
+  </si>
+  <si>
+    <t>tiwala parin ako na</t>
+  </si>
+  <si>
+    <t>RBD NNC PRS CCB</t>
+  </si>
+  <si>
+    <t>PRSP_CCP JJD_CCP CCR VBTF PMC</t>
+  </si>
+  <si>
+    <t>akin aga pag balik ,</t>
+  </si>
+  <si>
+    <t>JJD CCA VBTS CCP</t>
+  </si>
+  <si>
+    <t>laya at nasaya na</t>
+  </si>
+  <si>
+    <t>VBTR PRS ? DTC</t>
+  </si>
+  <si>
+    <t>dama ko parin ang</t>
+  </si>
+  <si>
+    <t>RBW_CCP RBW PMC</t>
+  </si>
+  <si>
+    <t>mula ngayon ,</t>
+  </si>
+  <si>
+    <t>PRO ? PMC</t>
+  </si>
+  <si>
+    <t>PRI_CCP ? NNC</t>
+  </si>
+  <si>
+    <t>isa mahalaga taon</t>
+  </si>
+  <si>
+    <t>JJD CCP PRS VBTS CCT</t>
+  </si>
+  <si>
+    <t>Tagal na ako tira sa</t>
+  </si>
+  <si>
+    <t>DTC PRSP_CCP CCR NNC CCT</t>
+  </si>
+  <si>
+    <t>ang akin pag bata sa</t>
+  </si>
+  <si>
+    <t>CCT CCR VBTF DTCP</t>
+  </si>
+  <si>
+    <t>sa pag isip ng_mga</t>
+  </si>
+  <si>
+    <t>RBW_CCP NNC PRSP_CCP VBTF</t>
+  </si>
+  <si>
+    <t>Ngayon araw akin bigay</t>
+  </si>
+  <si>
+    <t>? ? CCB PRSP_CCP</t>
+  </si>
+  <si>
+    <t>ala ala ng akin</t>
+  </si>
+  <si>
+    <t>CCB PRSP_CCP CCR NNC</t>
+  </si>
+  <si>
+    <t>ng akin pagka bata</t>
+  </si>
+  <si>
+    <t>VBTR PRS CCP RBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tuto ko na una</t>
+  </si>
+  <si>
+    <t>VBAF CCB VBH JJD</t>
+  </si>
+  <si>
+    <t>gawa nang may malay</t>
+  </si>
+  <si>
+    <t>DTCP NNC CCB ?</t>
+  </si>
+  <si>
+    <t>? FW CCB FW FW</t>
+  </si>
+  <si>
+    <t>DTCP ?</t>
+  </si>
+  <si>
+    <t>ng_mga computer</t>
+  </si>
+  <si>
+    <t>NNC CCB NNC_CCP CDB</t>
+  </si>
+  <si>
+    <t>DTC ? VBOF</t>
+  </si>
+  <si>
+    <t>ang iba'tiba palit</t>
+  </si>
+  <si>
+    <t>CCT PMC JJD</t>
+  </si>
+  <si>
+    <t>Subalit , hirap</t>
+  </si>
+  <si>
+    <t>DTC PRSP_CCP ?</t>
+  </si>
+  <si>
+    <t>ang kanila apilyido</t>
+  </si>
+  <si>
+    <t>? PRO</t>
+  </si>
+  <si>
+    <t>tingin ito</t>
+  </si>
+  <si>
+    <t>CCT VBOF CCP RBF PRP</t>
+  </si>
+  <si>
+    <t>o kita na hindi tayo</t>
+  </si>
+  <si>
+    <t>CCT ? DTC PRI_CCP</t>
+  </si>
+  <si>
+    <t>sa isa't-isa ang anuman</t>
+  </si>
+  <si>
+    <t>RBF PRP ? ?</t>
+  </si>
+  <si>
+    <t>CCB NNC CCP VBW PMP</t>
+  </si>
+  <si>
+    <t>ng karapatan na mabuhay .</t>
+  </si>
+  <si>
+    <t>ng karapatang mabuhay .</t>
+  </si>
+  <si>
+    <t>ng dapat na buhay .</t>
+  </si>
+  <si>
+    <t>CCR CCR VBOF</t>
+  </si>
+  <si>
+    <t>Kung kung sakit</t>
+  </si>
+  <si>
+    <t>FW RBW ?</t>
+  </si>
+  <si>
+    <t>DTC JJCS JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>ang pinaka una kompyuter</t>
+  </si>
+  <si>
+    <t>CCP VBH ?</t>
+  </si>
+  <si>
+    <t>na may masmaliwanag</t>
+  </si>
+  <si>
+    <t>ang ibigsabihin .</t>
+  </si>
+  <si>
+    <t>ang ibig sabihin .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DTC ? PMP</t>
+  </si>
+  <si>
+    <t>ang ibigsabi .</t>
+  </si>
+  <si>
+    <t>PRO_LM JJCS_JJD</t>
+  </si>
+  <si>
+    <t>ito_ay liit</t>
+  </si>
+  <si>
+    <t>? CCT PRI_CCP</t>
+  </si>
+  <si>
+    <t>compara sa isa</t>
+  </si>
+  <si>
+    <t>? PRO CCB</t>
+  </si>
+  <si>
+    <t>masliit ito ng</t>
+  </si>
+  <si>
+    <t>NNC CCB ?</t>
+  </si>
+  <si>
+    <t>saysay ng koriyente</t>
+  </si>
+  <si>
+    <t>RBR NNC_CCP ?</t>
+  </si>
+  <si>
+    <t>tungkol_sa termino koriyente</t>
+  </si>
+  <si>
+    <t>RBW ? DTP</t>
+  </si>
+  <si>
+    <t>Habang aral ni</t>
+  </si>
+  <si>
+    <t>CCR ? CCB</t>
+  </si>
+  <si>
+    <t>NNC PMC ? CCB</t>
+  </si>
+  <si>
+    <t>elektron , nagkakameron ng</t>
+  </si>
+  <si>
+    <t>? NNC CCP VBTR</t>
+  </si>
+  <si>
+    <t>bayaga hayag na ulat</t>
+  </si>
+  <si>
+    <t>JJCS_JJD CCA ? NNC</t>
+  </si>
+  <si>
+    <t>yaman at populado lungsod</t>
+  </si>
+  <si>
+    <t>RBF ? VBW</t>
+  </si>
+  <si>
+    <t>Hindi possible hawa</t>
+  </si>
+  <si>
+    <t>DTC CCR JJD CCT</t>
+  </si>
+  <si>
+    <t>DTC JJCS JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>ang pinaka epektibo daan</t>
+  </si>
+  <si>
+    <t>? NNC CCB</t>
+  </si>
+  <si>
+    <t>nagka roon ng dami</t>
+  </si>
+  <si>
+    <t>? PRL CCB PRI_CCP</t>
+  </si>
+  <si>
+    <t>RBD ? PRI_CCP JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>tuloy parin isa halaga daan</t>
+  </si>
+  <si>
+    <t>CCA JJN CCT</t>
+  </si>
+  <si>
+    <t>at ika sampu</t>
+  </si>
+  <si>
+    <t>CCT JJCS_JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>sa okupado bansa</t>
+  </si>
+  <si>
+    <t>? RBI VBTR CCB</t>
+  </si>
+  <si>
+    <t>Kamakaylan lamang hikayat ng</t>
+  </si>
+  <si>
+    <t>VBTF RBL CCB ? CCB NNP</t>
+  </si>
+  <si>
+    <t>sa_ligid ng lungod ng Blanyre</t>
+  </si>
+  <si>
+    <t>? NNC CCT NNC</t>
+  </si>
+  <si>
+    <t>tunkol_sa ako sa demokrasya</t>
+  </si>
+  <si>
+    <t>RBD_CCP JJD VBAF CCT</t>
+  </si>
+  <si>
+    <t>Kaya kaya tayo sa</t>
+  </si>
+  <si>
+    <t>DTC JJCS_JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>ang importante aktibidad</t>
+  </si>
+  <si>
+    <t>DTC VBW CCB ? PMP</t>
+  </si>
+  <si>
+    <t>ang dami ng competisyon .</t>
+  </si>
+  <si>
+    <t>CCT NNC CCB ?</t>
+  </si>
+  <si>
+    <t>Sa sector ng industrya</t>
+  </si>
+  <si>
+    <t>JJD CCP ?</t>
+  </si>
+  <si>
+    <t>pook na comersyal</t>
+  </si>
+  <si>
+    <t>CCP ? CCA</t>
+  </si>
+  <si>
+    <t>na dayo at</t>
+  </si>
+  <si>
+    <t>NNP DTC ? CDB PMS</t>
+  </si>
+  <si>
+    <t>? CCT NNP NNP PMP</t>
+  </si>
+  <si>
+    <t>DTC ? CCA NNC</t>
+  </si>
+  <si>
+    <t>ang tuyo at ulan</t>
+  </si>
+  <si>
+    <t>CCB ? ? RBW_CCP</t>
+  </si>
+  <si>
+    <t>ng Ceb u noon</t>
+  </si>
+  <si>
+    <t>? ? DTCP NNC</t>
+  </si>
+  <si>
+    <t>? VBOF CCP NNC</t>
+  </si>
+  <si>
+    <t>masdalas obserba na komet</t>
+  </si>
+  <si>
+    <t>RBD ? CCT PRQ_CCP NNC</t>
+  </si>
+  <si>
+    <t>hirap ipredict kahit anung antas</t>
+  </si>
+  <si>
+    <t>? CCT PRSP_CCP NNC</t>
+  </si>
+  <si>
+    <t>usap sa kanya ibig</t>
+  </si>
+  <si>
+    <t>DTC ? CCT</t>
+  </si>
+  <si>
+    <t>ang unlad sa</t>
+  </si>
+  <si>
+    <t>DTC NNC CCP VBTR</t>
+  </si>
+  <si>
+    <t>ang ngalan na gamit</t>
+  </si>
+  <si>
+    <t>CCB ? DTC</t>
+  </si>
+  <si>
+    <t>taas na kabisera</t>
+  </si>
+  <si>
+    <t>? CCP NNC</t>
+  </si>
+  <si>
+    <t>ganda lugar sa mundo</t>
+  </si>
+  <si>
+    <t>RBD NNC CCT NNP</t>
+  </si>
+  <si>
+    <t>DTC ? VBTS_CCP</t>
+  </si>
+  <si>
+    <t>Ang companya nagsimulang</t>
+  </si>
+  <si>
+    <t>Ang kumpanya nagsimulang</t>
+  </si>
+  <si>
+    <t>VBTS_CCP ? NNC</t>
+  </si>
+  <si>
+    <t>mula mag imbento</t>
+  </si>
+  <si>
+    <t>DTC ? DTCP NNC</t>
+  </si>
+  <si>
+    <t>ang iba mga tanaw</t>
+  </si>
+  <si>
+    <t>CCA VBRF PRS DTC</t>
+  </si>
+  <si>
+    <t>at tuloy niya ang</t>
+  </si>
+  <si>
+    <t>aral ng musika</t>
+  </si>
+  <si>
+    <t>VBTR PRS CCT ?</t>
+  </si>
+  <si>
+    <t>hiya siya sa perform</t>
+  </si>
+  <si>
+    <t>tanggal sa kanya leeg</t>
+  </si>
+  <si>
+    <t>JJCC NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>RBT ? VBW DTC</t>
+  </si>
+  <si>
+    <t>posible pala kita ang</t>
+  </si>
+  <si>
+    <t>CCB NNC_CCP VBW</t>
+  </si>
+  <si>
+    <t>ng industriya lathala</t>
+  </si>
+  <si>
+    <t>FW DTP NNPA FW</t>
+  </si>
+  <si>
+    <t>CCT NNC CCP ?</t>
+  </si>
+  <si>
+    <t>sa kalidad na propesyunal</t>
+  </si>
+  <si>
+    <t>VBTS PRP PMC</t>
+  </si>
+  <si>
+    <t>DTC NNC CCT ?</t>
+  </si>
+  <si>
+    <t>ang iba't-ibang typeface</t>
+  </si>
+  <si>
+    <t>ang iba't ibang typeface</t>
+  </si>
+  <si>
+    <t>DTC ? FW</t>
+  </si>
+  <si>
+    <t>ang iba typeface</t>
+  </si>
+  <si>
+    <t>NNC DTC PRI_CCP</t>
+  </si>
+  <si>
+    <t>istilo ang isa</t>
+  </si>
+  <si>
+    <t>? ? FW</t>
+  </si>
+  <si>
+    <t>JJD_CCP ? DTC VBW</t>
+  </si>
+  <si>
+    <t>una dahil ang gamit</t>
+  </si>
+  <si>
+    <t>CCP ? RBL</t>
   </si>
 </sst>
 </file>
@@ -1795,18 +2407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42" x14ac:dyDescent="0.25">
@@ -1830,6 +2442,12 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1838,6 +2456,12 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1846,37 +2470,67 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,1757 +2540,2415 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D13" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D15" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>456</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>457</v>
+      </c>
+      <c r="D17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C20" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="C22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>468</v>
+      </c>
+      <c r="D23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="C24" t="s">
+        <v>470</v>
+      </c>
+      <c r="D24" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>474</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>475</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>480</v>
+      </c>
+      <c r="D31" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>482</v>
+      </c>
+      <c r="D32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="C33" t="s">
+        <v>484</v>
+      </c>
+      <c r="D33" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="C34" t="s">
+        <v>486</v>
+      </c>
+      <c r="D34" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="C35" t="s">
+        <v>488</v>
+      </c>
+      <c r="D35" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="C36" t="s">
+        <v>490</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>491</v>
+      </c>
+      <c r="D37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>493</v>
+      </c>
+      <c r="D38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>495</v>
+      </c>
+      <c r="D39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>497</v>
+      </c>
+      <c r="D40" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>499</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>500</v>
+      </c>
+      <c r="D42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>502</v>
+      </c>
+      <c r="D43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>506</v>
+      </c>
+      <c r="D45" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>508</v>
+      </c>
+      <c r="D46" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>510</v>
+      </c>
+      <c r="D47" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>512</v>
+      </c>
+      <c r="D48" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>514</v>
+      </c>
+      <c r="D49" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="C50" t="s">
+        <v>516</v>
+      </c>
+      <c r="D50" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>518</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>519</v>
+      </c>
+      <c r="D53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D54" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>522</v>
+      </c>
+      <c r="D55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" t="s">
+        <v>523</v>
+      </c>
+      <c r="D56" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C57" t="s">
+        <v>525</v>
+      </c>
+      <c r="D57" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" t="s">
+        <v>527</v>
+      </c>
+      <c r="D58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>529</v>
+      </c>
+      <c r="D59" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>531</v>
+      </c>
+      <c r="D60" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="B61" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C61" t="s">
+        <v>533</v>
+      </c>
+      <c r="D61" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="B62" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C62" t="s">
+        <v>535</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C63" t="s">
+        <v>536</v>
+      </c>
+      <c r="D63" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="B64" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C64" t="s">
+        <v>540</v>
+      </c>
+      <c r="D64" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="B65" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>542</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>543</v>
+      </c>
+      <c r="D66" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
+        <v>545</v>
+      </c>
+      <c r="D67" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C68" t="s">
+        <v>549</v>
+      </c>
+      <c r="D68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>551</v>
+      </c>
+      <c r="D69" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B70" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C70" t="s">
+        <v>553</v>
+      </c>
+      <c r="D70" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B71" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C71" t="s">
+        <v>555</v>
+      </c>
+      <c r="D71" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B72" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>557</v>
+      </c>
+      <c r="D72" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B73" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="C73" t="s">
+        <v>559</v>
+      </c>
+      <c r="D73" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>561</v>
+      </c>
+      <c r="D74" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" t="s">
+        <v>563</v>
+      </c>
+      <c r="D75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" t="s">
+        <v>564</v>
+      </c>
+      <c r="D76" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B77" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="C77" t="s">
+        <v>566</v>
+      </c>
+      <c r="D77" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B78" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C78" t="s">
+        <v>568</v>
+      </c>
+      <c r="D78" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
+        <v>570</v>
+      </c>
+      <c r="D79" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B80" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C80" t="s">
+        <v>572</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="B81" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>573</v>
+      </c>
+      <c r="D81" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="C82" t="s">
+        <v>575</v>
+      </c>
+      <c r="D82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" t="s">
+        <v>577</v>
+      </c>
+      <c r="D83" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" t="s">
+        <v>578</v>
+      </c>
+      <c r="D84" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" t="s">
+        <v>580</v>
+      </c>
+      <c r="D85" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" t="s">
+        <v>582</v>
+      </c>
+      <c r="D86" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>584</v>
+      </c>
+      <c r="D87" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" t="s">
+        <v>586</v>
+      </c>
+      <c r="D88" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" t="s">
+        <v>588</v>
+      </c>
+      <c r="D89" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" t="s">
+        <v>590</v>
+      </c>
+      <c r="D90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" t="s">
+        <v>592</v>
+      </c>
+      <c r="D91" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" t="s">
+        <v>594</v>
+      </c>
+      <c r="D92" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" t="s">
+        <v>596</v>
+      </c>
+      <c r="D93" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>598</v>
+      </c>
+      <c r="D94" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="C95" t="s">
+        <v>600</v>
+      </c>
+      <c r="D95" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
+        <v>602</v>
+      </c>
+      <c r="D96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
+        <v>603</v>
+      </c>
+      <c r="D97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s">
+        <v>604</v>
+      </c>
+      <c r="D98" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B99" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="C99" t="s">
+        <v>606</v>
+      </c>
+      <c r="D99" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>608</v>
+      </c>
+      <c r="D100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>609</v>
+      </c>
+      <c r="D101" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="s">
+        <v>611</v>
+      </c>
+      <c r="D102" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="s">
+        <v>613</v>
+      </c>
+      <c r="D103" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="C104" t="s">
+        <v>615</v>
+      </c>
+      <c r="D104" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="C105" t="s">
+        <v>617</v>
+      </c>
+      <c r="D105" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B106" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="C106" t="s">
+        <v>619</v>
+      </c>
+      <c r="D106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B107" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="C107" t="s">
+        <v>621</v>
+      </c>
+      <c r="D107" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B108" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="C108" t="s">
+        <v>588</v>
+      </c>
+      <c r="D108" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" t="s">
+        <v>623</v>
+      </c>
+      <c r="D110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C111" t="s">
+        <v>624</v>
+      </c>
+      <c r="D111" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" t="s">
+        <v>627</v>
+      </c>
+      <c r="D112" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" t="s">
+        <v>629</v>
+      </c>
+      <c r="D113" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" t="s">
+        <v>631</v>
+      </c>
+      <c r="D114" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" t="s">
+        <v>468</v>
+      </c>
+      <c r="D115" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" t="s">
+        <v>634</v>
+      </c>
+      <c r="D116" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" t="s">
+        <v>613</v>
+      </c>
+      <c r="D117" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" t="s">
+        <v>637</v>
+      </c>
+      <c r="D118" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" t="s">
+        <v>638</v>
+      </c>
+      <c r="D119" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C120" t="s">
+        <v>640</v>
+      </c>
+      <c r="D120" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" t="s">
+        <v>642</v>
+      </c>
+      <c r="D121" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" t="s">
+        <v>643</v>
+      </c>
+      <c r="D122" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C123" t="s">
+        <v>645</v>
+      </c>
+      <c r="D123" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" t="s">
+        <v>646</v>
+      </c>
+      <c r="D124" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C125" t="s">
+        <v>649</v>
+      </c>
+      <c r="D125" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" t="s">
+        <v>651</v>
+      </c>
+      <c r="D126" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B127" s="12" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="C127" t="s">
+        <v>653</v>
+      </c>
+      <c r="D127" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" t="s">
+        <v>654</v>
+      </c>
+      <c r="D128" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" t="s">
+        <v>656</v>
+      </c>
+      <c r="D129" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B143" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B139" s="11" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
+      <c r="B144" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>319</v>
+      <c r="A146" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>323</v>
+      <c r="A148" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>325</v>
+      <c r="A149" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>331</v>
+      <c r="A153" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>237</v>
+      <c r="A155" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>332</v>
+        <v>224</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>334</v>
+        <v>228</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>335</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>346</v>
+        <v>232</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>347</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>248</v>
+        <v>339</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>250</v>
+        <v>345</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>251</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>359</v>
+        <v>239</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>361</v>
+      <c r="A177" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>253</v>
+      <c r="A178" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>256</v>
+        <v>357</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>257</v>
+        <v>358</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>369</v>
+      <c r="A184" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>259</v>
+      <c r="A185" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>379</v>
+      <c r="A190" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>383</v>
+      <c r="A192" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>384</v>
+        <v>242</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>385</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>393</v>
+      <c r="A197" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="B199" s="12" t="s">
-        <v>397</v>
+      <c r="A199" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>260</v>
+        <v>389</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>261</v>
+        <v>390</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>407</v>
+      <c r="A205" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B213" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="11" t="s">
+    <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B215" s="15" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="11" t="s">
+    <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B216" s="15" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="11" t="s">
+    <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B217" s="15" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="11" t="s">
+    <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B218" s="15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
+    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="B212" s="12" t="s">
+      <c r="B219" s="15" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B216" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B217" s="13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B219" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="B225" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="B226" s="15" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="B227" s="15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="B228" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="B229" s="15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="B231" s="15" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
+++ b/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Workspaces\Java\NGramChecker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="37395" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="37392" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="750">
   <si>
     <t>Incorrect</t>
   </si>
@@ -708,12 +713,6 @@
     <t>na humubog ng</t>
   </si>
   <si>
-    <t>yan</t>
-  </si>
-  <si>
-    <t>iyan</t>
-  </si>
-  <si>
     <t>insekto ng hindi</t>
   </si>
   <si>
@@ -732,12 +731,6 @@
     <t>Sa panahong ito</t>
   </si>
   <si>
-    <t>mapagisa</t>
-  </si>
-  <si>
-    <t>mapag-isa</t>
-  </si>
-  <si>
     <t>kompederasyon na ito</t>
   </si>
   <si>
@@ -993,12 +986,6 @@
     <t>nagdeklara ng batas</t>
   </si>
   <si>
-    <t>military ang komandanteng</t>
-  </si>
-  <si>
-    <t>militar ang komandanteng</t>
-  </si>
-  <si>
     <t>sa timogkanluran papunta_sa</t>
   </si>
   <si>
@@ -1131,12 +1118,6 @@
     <t>ang kumpetisyon at</t>
   </si>
   <si>
-    <t>propesyonal ang ma sumasali</t>
-  </si>
-  <si>
-    <t>propesyonal ang mga sumasali</t>
-  </si>
-  <si>
     <t>apela ng naturang exhibition</t>
   </si>
   <si>
@@ -1929,9 +1910,6 @@
     <t>tanggal sa kanya leeg</t>
   </si>
   <si>
-    <t>JJCC NNC CCB NNC</t>
-  </si>
-  <si>
     <t>RBT ? VBW DTC</t>
   </si>
   <si>
@@ -1987,6 +1965,312 @@
   </si>
   <si>
     <t>CCP ? RBL</t>
+  </si>
+  <si>
+    <t>VBW DTCP NNC_CCP</t>
+  </si>
+  <si>
+    <t>buo ang_mga dokumento</t>
+  </si>
+  <si>
+    <t>NNC CCB RBF VBTF</t>
+  </si>
+  <si>
+    <t>estadistika ng hindi lagpas</t>
+  </si>
+  <si>
+    <t>? CCP VBS</t>
+  </si>
+  <si>
+    <t>ugnay na gamit</t>
+  </si>
+  <si>
+    <t>konsepto ng ugnay</t>
+  </si>
+  <si>
+    <t>? DTC JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>iba ang dalawa uri</t>
+  </si>
+  <si>
+    <t>CCU FW CCA FW</t>
+  </si>
+  <si>
+    <t>VBW ? DTC NNC</t>
+  </si>
+  <si>
+    <t>tapos tingin ang bilang</t>
+  </si>
+  <si>
+    <t>CCT ? CCB NNC</t>
+  </si>
+  <si>
+    <t>DTC ? PRI</t>
+  </si>
+  <si>
+    <t>? NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>Ang pinaka dami</t>
+  </si>
+  <si>
+    <t>ang simple dahon</t>
+  </si>
+  <si>
+    <t>VBH_CCP PRI_CCP VBW</t>
+  </si>
+  <si>
+    <t>Mayroon buo hati</t>
+  </si>
+  <si>
+    <t>ang kain ng_mga protina</t>
+  </si>
+  <si>
+    <t>? RBF JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>mayroonng hindi aya lasa</t>
+  </si>
+  <si>
+    <t>RBW JJD</t>
+  </si>
+  <si>
+    <t>naka diskubre ng daan</t>
+  </si>
+  <si>
+    <t>? VBS CCB NNC</t>
+  </si>
+  <si>
+    <t>VBTR ? DTC</t>
+  </si>
+  <si>
+    <t>gamit parin ang</t>
+  </si>
+  <si>
+    <t>DTC ? PRO</t>
+  </si>
+  <si>
+    <t>VB_TR_AF CCB RBD</t>
+  </si>
+  <si>
+    <t>galaw ng tindig</t>
+  </si>
+  <si>
+    <t>galaw ng halang</t>
+  </si>
+  <si>
+    <t>? DTC NNC_CCP</t>
+  </si>
+  <si>
+    <t>dismiss ang teorya</t>
+  </si>
+  <si>
+    <t>VBTS CCP</t>
+  </si>
+  <si>
+    <t>tunay na</t>
+  </si>
+  <si>
+    <t>DTC ? VB_TR_RF</t>
+  </si>
+  <si>
+    <t>ang nagiisa kuha</t>
+  </si>
+  <si>
+    <t>PRI_CCP NNC CCB ?</t>
+  </si>
+  <si>
+    <t>isa gabi ng pagiisip</t>
+  </si>
+  <si>
+    <t>VBW CCB JJD</t>
+  </si>
+  <si>
+    <t>tapos ng haba</t>
+  </si>
+  <si>
+    <t>CCR VB_TR_RF PMC</t>
+  </si>
+  <si>
+    <t>Pag sama ,</t>
+  </si>
+  <si>
+    <t>VBTR ? NNC</t>
+  </si>
+  <si>
+    <t>mungkahi netong ebidensya</t>
+  </si>
+  <si>
+    <t>VBN_CCP CCB VBTR_CCP</t>
+  </si>
+  <si>
+    <t>Wala ng tira</t>
+  </si>
+  <si>
+    <t>JD CCP NNC</t>
+  </si>
+  <si>
+    <t>yaman na pamilya</t>
+  </si>
+  <si>
+    <t>CCP VBTS CCB</t>
+  </si>
+  <si>
+    <t>na hubog ng</t>
+  </si>
+  <si>
+    <t>? NNC</t>
+  </si>
+  <si>
+    <t>Sa_pamamgitan_ng dahas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBTS ? FW </t>
+  </si>
+  <si>
+    <t>deklara ngbatas military</t>
+  </si>
+  <si>
+    <t>CCT ? RBL</t>
+  </si>
+  <si>
+    <t>sa timogkanluran punta_sa</t>
+  </si>
+  <si>
+    <t>CCP PRF CCT</t>
+  </si>
+  <si>
+    <t>na yan sa</t>
+  </si>
+  <si>
+    <t>na iyan sa</t>
+  </si>
+  <si>
+    <t>CDB PMC VBTS PRS</t>
+  </si>
+  <si>
+    <t>1966 , bida siya sa</t>
+  </si>
+  <si>
+    <t>CCT CCR JJD RBB</t>
+  </si>
+  <si>
+    <t>? JJD CCA JJD</t>
+  </si>
+  <si>
+    <t>NNC CCB RBF</t>
+  </si>
+  <si>
+    <t>DTC RBD CCP ?</t>
+  </si>
+  <si>
+    <t>ang tuloy na pagiinom</t>
+  </si>
+  <si>
+    <t>JJC CCP DTP NNP NNP</t>
+  </si>
+  <si>
+    <t>tulad na ni Howard Sturges</t>
+  </si>
+  <si>
+    <t>PRI_CCP JJD CCP NNC</t>
+  </si>
+  <si>
+    <t>isa yaman na pamilya</t>
+  </si>
+  <si>
+    <t>CCT NNC CCP PRO</t>
+  </si>
+  <si>
+    <t>JJN_CCP ? CCB NNC</t>
+  </si>
+  <si>
+    <t>isa lingo ng dahas</t>
+  </si>
+  <si>
+    <t>? CCB JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>nagiwan ng daan patay</t>
+  </si>
+  <si>
+    <t>VBW ? DTCP FW FW</t>
+  </si>
+  <si>
+    <t>sama sama ang_mga armed forces</t>
+  </si>
+  <si>
+    <t>at mapagisa ang</t>
+  </si>
+  <si>
+    <t>at mapag-isa ang</t>
+  </si>
+  <si>
+    <t>CCA ? DTC</t>
+  </si>
+  <si>
+    <t>CCB ? NNC</t>
+  </si>
+  <si>
+    <t>NNC CCP PRO</t>
+  </si>
+  <si>
+    <t>? RBB PRSP</t>
+  </si>
+  <si>
+    <t>DTC ? RBW VBAF</t>
+  </si>
+  <si>
+    <t>ang akulong nang mula</t>
+  </si>
+  <si>
+    <t>CCU NNC CCB ?</t>
+  </si>
+  <si>
+    <t>? JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>nungg una panahon</t>
+  </si>
+  <si>
+    <t>? CCP VBOF</t>
+  </si>
+  <si>
+    <t>? DTP NNP</t>
+  </si>
+  <si>
+    <t>NNC ? NNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ligsa anfg tema </t>
+  </si>
+  <si>
+    <t>? PRP CCT NNC</t>
+  </si>
+  <si>
+    <t>VBRF CCB NNC</t>
+  </si>
+  <si>
+    <t>hina ng loob</t>
+  </si>
+  <si>
+    <t>DTC ? PRP DTC</t>
+  </si>
+  <si>
+    <t>DTC ? CCA</t>
+  </si>
+  <si>
+    <t>? CCB VBTS_CCP FW</t>
+  </si>
+  <si>
+    <t>apela ng naturan exhibition</t>
+  </si>
+  <si>
+    <t>RBF ? VBTF</t>
+  </si>
+  <si>
+    <t>hindi parin turing</t>
   </si>
 </sst>
 </file>
@@ -2116,6 +2400,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2163,7 +2450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2198,7 +2485,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2407,21 +2694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2443,13 +2730,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2457,13 +2744,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2471,13 +2758,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2485,13 +2772,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2499,13 +2786,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2513,13 +2800,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2527,13 +2814,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2541,13 +2828,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2555,13 +2842,13 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -2569,13 +2856,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2583,13 +2870,13 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -2597,13 +2884,13 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -2611,13 +2898,13 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2625,13 +2912,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2639,13 +2926,13 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2653,13 +2940,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2667,13 +2954,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2681,13 +2968,13 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D19" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -2695,13 +2982,13 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D20" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -2709,13 +2996,13 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D21" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2723,13 +3010,13 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -2737,13 +3024,13 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2751,13 +3038,13 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2765,13 +3052,13 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -2779,13 +3066,13 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2793,13 +3080,13 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -2807,13 +3094,13 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -2821,13 +3108,13 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D29" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -2835,13 +3122,13 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -2849,13 +3136,13 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -2863,13 +3150,13 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D32" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
@@ -2877,13 +3164,13 @@
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D33" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -2891,13 +3178,13 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D34" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
@@ -2905,13 +3192,13 @@
         <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -2919,13 +3206,13 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
@@ -2933,13 +3220,13 @@
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D37" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -2947,13 +3234,13 @@
         <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D38" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>80</v>
       </c>
@@ -2961,13 +3248,13 @@
         <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D39" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
@@ -2975,13 +3262,13 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
@@ -2989,13 +3276,13 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -3003,13 +3290,13 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D42" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>88</v>
       </c>
@@ -3017,13 +3304,13 @@
         <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D43" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>90</v>
       </c>
@@ -3031,13 +3318,13 @@
         <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D44" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>92</v>
       </c>
@@ -3045,13 +3332,13 @@
         <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D45" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>94</v>
       </c>
@@ -3059,13 +3346,13 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D46" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>96</v>
       </c>
@@ -3073,13 +3360,13 @@
         <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D47" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
@@ -3087,13 +3374,13 @@
         <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D48" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
@@ -3101,13 +3388,13 @@
         <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D49" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>102</v>
       </c>
@@ -3115,13 +3402,13 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D50" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>140</v>
       </c>
@@ -3129,13 +3416,13 @@
         <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D52" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
@@ -3143,13 +3430,13 @@
         <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D53" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>144</v>
       </c>
@@ -3157,13 +3444,13 @@
         <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D54" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>146</v>
       </c>
@@ -3171,13 +3458,13 @@
         <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D55" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>148</v>
       </c>
@@ -3185,13 +3472,13 @@
         <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D56" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -3199,13 +3486,13 @@
         <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D57" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>151</v>
       </c>
@@ -3213,13 +3500,13 @@
         <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D58" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>153</v>
       </c>
@@ -3227,13 +3514,13 @@
         <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D59" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3241,13 +3528,13 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D60" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>105</v>
       </c>
@@ -3255,13 +3542,13 @@
         <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D61" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>107</v>
       </c>
@@ -3269,27 +3556,27 @@
         <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C63" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D63" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>109</v>
       </c>
@@ -3297,13 +3584,13 @@
         <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D64" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>111</v>
       </c>
@@ -3311,13 +3598,13 @@
         <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D65" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>113</v>
       </c>
@@ -3325,13 +3612,13 @@
         <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D66" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>115</v>
       </c>
@@ -3339,27 +3626,27 @@
         <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D67" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C68" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D68" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>117</v>
       </c>
@@ -3367,13 +3654,13 @@
         <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D69" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>155</v>
       </c>
@@ -3381,13 +3668,13 @@
         <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D70" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>157</v>
       </c>
@@ -3395,13 +3682,13 @@
         <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D71" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>159</v>
       </c>
@@ -3409,13 +3696,13 @@
         <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D72" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>160</v>
       </c>
@@ -3423,13 +3710,13 @@
         <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D73" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>120</v>
       </c>
@@ -3437,13 +3724,13 @@
         <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D74" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>122</v>
       </c>
@@ -3451,13 +3738,13 @@
         <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>124</v>
       </c>
@@ -3465,13 +3752,13 @@
         <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D76" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>162</v>
       </c>
@@ -3479,13 +3766,13 @@
         <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D77" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>164</v>
       </c>
@@ -3493,13 +3780,13 @@
         <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D78" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>126</v>
       </c>
@@ -3507,13 +3794,13 @@
         <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D79" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>166</v>
       </c>
@@ -3521,13 +3808,13 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D80" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>168</v>
       </c>
@@ -3535,13 +3822,13 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D81" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>128</v>
       </c>
@@ -3549,13 +3836,13 @@
         <v>129</v>
       </c>
       <c r="C82" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>170</v>
       </c>
@@ -3563,13 +3850,13 @@
         <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D83" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>172</v>
       </c>
@@ -3577,13 +3864,13 @@
         <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D84" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>174</v>
       </c>
@@ -3591,13 +3878,13 @@
         <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D85" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>176</v>
       </c>
@@ -3605,13 +3892,13 @@
         <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D86" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>178</v>
       </c>
@@ -3619,13 +3906,13 @@
         <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D87" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>180</v>
       </c>
@@ -3633,13 +3920,13 @@
         <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D88" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>182</v>
       </c>
@@ -3647,13 +3934,13 @@
         <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D89" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>184</v>
       </c>
@@ -3661,13 +3948,13 @@
         <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D90" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>186</v>
       </c>
@@ -3675,13 +3962,13 @@
         <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D91" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>188</v>
       </c>
@@ -3689,13 +3976,13 @@
         <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D92" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>190</v>
       </c>
@@ -3703,13 +3990,13 @@
         <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D93" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>192</v>
       </c>
@@ -3717,13 +4004,13 @@
         <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D94" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>130</v>
       </c>
@@ -3731,13 +4018,13 @@
         <v>131</v>
       </c>
       <c r="C95" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D95" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>194</v>
       </c>
@@ -3745,13 +4032,13 @@
         <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D96" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>196</v>
       </c>
@@ -3759,13 +4046,13 @@
         <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D97" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>198</v>
       </c>
@@ -3773,13 +4060,13 @@
         <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D98" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>132</v>
       </c>
@@ -3787,13 +4074,13 @@
         <v>133</v>
       </c>
       <c r="C99" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D99" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>200</v>
       </c>
@@ -3801,13 +4088,13 @@
         <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D100" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>202</v>
       </c>
@@ -3815,13 +4102,13 @@
         <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D101" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>204</v>
       </c>
@@ -3829,13 +4116,13 @@
         <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D102" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>206</v>
       </c>
@@ -3843,13 +4130,13 @@
         <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D103" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>134</v>
       </c>
@@ -3857,13 +4144,13 @@
         <v>135</v>
       </c>
       <c r="C104" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="D104" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>136</v>
       </c>
@@ -3871,13 +4158,13 @@
         <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D105" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>138</v>
       </c>
@@ -3885,13 +4172,13 @@
         <v>139</v>
       </c>
       <c r="C106" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D106" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>208</v>
       </c>
@@ -3899,13 +4186,13 @@
         <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D107" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>210</v>
       </c>
@@ -3913,251 +4200,251 @@
         <v>211</v>
       </c>
       <c r="C108" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D108" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" t="s">
+        <v>615</v>
+      </c>
+      <c r="D110" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C111" t="s">
+        <v>616</v>
+      </c>
+      <c r="D111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" t="s">
+        <v>619</v>
+      </c>
+      <c r="D112" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113" t="s">
+        <v>621</v>
+      </c>
+      <c r="D113" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C114" t="s">
         <v>623</v>
       </c>
-      <c r="D110" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="D114" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>460</v>
+      </c>
+      <c r="D115" t="s">
         <v>625</v>
       </c>
-      <c r="B111" s="11" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
         <v>626</v>
       </c>
-      <c r="C111" t="s">
-        <v>624</v>
-      </c>
-      <c r="D111" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D116" t="s">
         <v>627</v>
       </c>
-      <c r="D112" t="s">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" t="s">
+        <v>605</v>
+      </c>
+      <c r="D117" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" t="s">
+        <v>662</v>
+      </c>
+      <c r="D118" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" t="s">
         <v>629</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D119" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" t="s">
         <v>631</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D120" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" t="s">
-        <v>468</v>
-      </c>
-      <c r="D115" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D121" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" t="s">
         <v>634</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D122" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" t="s">
-        <v>613</v>
-      </c>
-      <c r="D117" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="D123" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" t="s">
         <v>637</v>
       </c>
-      <c r="D118" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="D119" t="s">
+      <c r="B125" s="11" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="C125" t="s">
         <v>640</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D125" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C121" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" t="s">
         <v>642</v>
       </c>
-      <c r="D121" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D126" t="s">
         <v>643</v>
       </c>
-      <c r="D122" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C123" t="s">
-        <v>645</v>
-      </c>
-      <c r="D123" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C124" t="s">
-        <v>646</v>
-      </c>
-      <c r="D124" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="C125" t="s">
-        <v>649</v>
-      </c>
-      <c r="D125" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C126" t="s">
-        <v>651</v>
-      </c>
-      <c r="D126" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>212</v>
       </c>
@@ -4165,790 +4452,1140 @@
         <v>213</v>
       </c>
       <c r="C127" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D127" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" t="s">
+        <v>645</v>
+      </c>
+      <c r="D128" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" t="s">
+        <v>647</v>
+      </c>
+      <c r="D129" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B130" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C130" t="s">
+        <v>648</v>
+      </c>
+      <c r="D130" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" t="s">
+        <v>650</v>
+      </c>
+      <c r="D131" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C132" t="s">
+        <v>652</v>
+      </c>
+      <c r="D132" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" t="s">
+        <v>549</v>
+      </c>
+      <c r="D133" t="s">
         <v>654</v>
       </c>
-      <c r="D128" t="s">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D134" t="s">
         <v>656</v>
       </c>
-      <c r="D129" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B135" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+      <c r="C135" t="s">
+        <v>657</v>
+      </c>
+      <c r="D135" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B136" s="11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+      <c r="C136" t="s">
+        <v>658</v>
+      </c>
+      <c r="D136" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B137" s="11" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+      <c r="C137" t="s">
+        <v>660</v>
+      </c>
+      <c r="D137" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B138" s="11" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+      <c r="C138" t="s">
+        <v>661</v>
+      </c>
+      <c r="D138" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B139" s="11" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+      <c r="C139" t="s">
+        <v>430</v>
+      </c>
+      <c r="D139" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B140" s="11" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="C140" t="s">
+        <v>665</v>
+      </c>
+      <c r="D140" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B141" s="11" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
+      <c r="C141" t="s">
+        <v>621</v>
+      </c>
+      <c r="D141" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B142" s="12" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>668</v>
+      </c>
+      <c r="D142" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
         <v>214</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>670</v>
+      </c>
+      <c r="D143" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C144" t="s">
+        <v>672</v>
+      </c>
+      <c r="D144" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C145" t="s">
+        <v>673</v>
+      </c>
+      <c r="D145" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B146" s="12" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>675</v>
+      </c>
+      <c r="D146" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>216</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>676</v>
+      </c>
+      <c r="D147" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>218</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>676</v>
+      </c>
+      <c r="D148" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="C149" t="s">
+        <v>679</v>
+      </c>
+      <c r="D149" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>220</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>681</v>
+      </c>
+      <c r="D150" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="C151" t="s">
+        <v>683</v>
+      </c>
+      <c r="D151" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="C152" t="s">
+        <v>685</v>
+      </c>
+      <c r="D152" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>222</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>687</v>
+      </c>
+      <c r="D153" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="C154" t="s">
+        <v>689</v>
+      </c>
+      <c r="D154" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="C155" t="s">
+        <v>691</v>
+      </c>
+      <c r="D155" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
         <v>224</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>693</v>
+      </c>
+      <c r="D156" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
         <v>226</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>695</v>
+      </c>
+      <c r="D157" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>228</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>697</v>
+      </c>
+      <c r="D158" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C159" t="s">
+        <v>699</v>
+      </c>
+      <c r="D159" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" t="s">
+        <v>701</v>
+      </c>
+      <c r="D160" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B161" s="11" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="11" t="s">
+      <c r="C161" t="s">
+        <v>703</v>
+      </c>
+      <c r="D161" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C162" t="s">
+        <v>705</v>
+      </c>
+      <c r="D162" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B163" s="11" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
+      <c r="C163" t="s">
+        <v>708</v>
+      </c>
+      <c r="D163" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B164" s="11" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
+      <c r="C164" t="s">
+        <v>710</v>
+      </c>
+      <c r="D164" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B165" s="11" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="11" t="s">
+      <c r="C165" t="s">
+        <v>621</v>
+      </c>
+      <c r="D165" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" t="s">
+        <v>711</v>
+      </c>
+      <c r="D166" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B167" s="11" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
+      <c r="C167" t="s">
+        <v>712</v>
+      </c>
+      <c r="D167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B168" s="11" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="11" t="s">
+      <c r="C168" t="s">
+        <v>713</v>
+      </c>
+      <c r="D168" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B169" s="11" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="11" t="s">
+      <c r="C169" t="s">
+        <v>715</v>
+      </c>
+      <c r="D169" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B170" s="11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>717</v>
+      </c>
+      <c r="D170" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>234</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>719</v>
+      </c>
+      <c r="D171" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C172" t="s">
+        <v>720</v>
+      </c>
+      <c r="D172" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C173" t="s">
+        <v>722</v>
+      </c>
+      <c r="D173" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C174" t="s">
+        <v>724</v>
+      </c>
+      <c r="D174" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="C175" t="s">
+        <v>728</v>
+      </c>
+      <c r="D175" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C176" t="s">
+        <v>729</v>
+      </c>
+      <c r="D176" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B177" s="12" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="11" t="s">
+      <c r="C177" t="s">
+        <v>730</v>
+      </c>
+      <c r="D177" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B178" s="11" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
+      <c r="C178" t="s">
+        <v>731</v>
+      </c>
+      <c r="D178" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B179" s="11" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="11" t="s">
+      <c r="C179" t="s">
+        <v>732</v>
+      </c>
+      <c r="D179" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C180" t="s">
+        <v>734</v>
+      </c>
+      <c r="D180" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C181" t="s">
+        <v>735</v>
+      </c>
+      <c r="D181" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C182" t="s">
+        <v>737</v>
+      </c>
+      <c r="D182" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C183" t="s">
+        <v>738</v>
+      </c>
+      <c r="D183" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C184" t="s">
+        <v>739</v>
+      </c>
+      <c r="D184" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C185" t="s">
+        <v>741</v>
+      </c>
+      <c r="D185" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C186" t="s">
+        <v>742</v>
+      </c>
+      <c r="D186" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C187" t="s">
+        <v>744</v>
+      </c>
+      <c r="D187" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C188" t="s">
+        <v>745</v>
+      </c>
+      <c r="D188" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C189" t="s">
+        <v>746</v>
+      </c>
+      <c r="D189" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C190" t="s">
+        <v>748</v>
+      </c>
+      <c r="D190" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B191" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="11" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B192" s="11" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B193" s="11" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="11" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B194" s="11" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B195" s="11" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="11" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B196" s="11" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="11" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B197" s="11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="11" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B198" s="11" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="11" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B199" s="11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="11" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B200" s="11" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B201" s="11" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="11" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B202" s="11" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="11" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B203" s="12" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="11" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B204" s="11" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="11" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B205" s="11" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="11" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B208" s="13" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="12" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="B205" s="12" t="s">
+      <c r="B210" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="11" t="s">
+      <c r="B212" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="B206" s="11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B207" s="11" t="s">
+    </row>
+    <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="15" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="13" t="s">
+      <c r="B213" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="B210" s="13" t="s">
+    </row>
+    <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="15" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="14" t="s">
+      <c r="B214" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B212" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="15" t="s">
+    </row>
+    <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="B216" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B214" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="15" t="s">
+    <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="B215" s="15" t="s">
+      <c r="B217" s="15" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="15" t="s">
+    <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A218" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="B216" s="15" t="s">
+      <c r="B218" s="15" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="15" t="s">
+    <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A219" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B219" s="15" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="15" t="s">
+    <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="B218" s="15" t="s">
+      <c r="B220" s="15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="15" t="s">
+    <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="B219" s="15" t="s">
+      <c r="B221" s="15" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="15" t="s">
+    <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A222" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B222" s="15" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="B221" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B223" s="15" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B224" s="15" t="s">
-        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4963,7 +5600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4975,7 +5612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
+++ b/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="799">
   <si>
     <t>Incorrect</t>
   </si>
@@ -2271,6 +2271,153 @@
   </si>
   <si>
     <t>hindi parin turing</t>
+  </si>
+  <si>
+    <t>JJC CCT PRI</t>
+  </si>
+  <si>
+    <t>CCT ? PRO</t>
+  </si>
+  <si>
+    <t>VBH_CCP RBI CCP RBF</t>
+  </si>
+  <si>
+    <t>Mayroon din na hindi</t>
+  </si>
+  <si>
+    <t>VBTS ? DTC</t>
+  </si>
+  <si>
+    <t>tili parin ang</t>
+  </si>
+  <si>
+    <t>kultura ang gawa</t>
+  </si>
+  <si>
+    <t>? DTC VBOF</t>
+  </si>
+  <si>
+    <t>VBTS CCB VBOF</t>
+  </si>
+  <si>
+    <t>nasira ng tuloy</t>
+  </si>
+  <si>
+    <t>DTC ? JJD_CCP VBTS</t>
+  </si>
+  <si>
+    <t>ang pinaka tanda galing</t>
+  </si>
+  <si>
+    <t>RBW NNC CCP PRO</t>
+  </si>
+  <si>
+    <t>pag ipon ng pondo</t>
+  </si>
+  <si>
+    <t>? CCB JJD_CCP NNC_CCP</t>
+  </si>
+  <si>
+    <t>myembro ng prestihiyoso pamilya</t>
+  </si>
+  <si>
+    <t>? ? PRS CCT NNC</t>
+  </si>
+  <si>
+    <t>VBW CCB VBW CCP VBAF</t>
+  </si>
+  <si>
+    <t>tapos ng laman na bagsak</t>
+  </si>
+  <si>
+    <t>RBD PRP VBTS</t>
+  </si>
+  <si>
+    <t>bilis sila tayo</t>
+  </si>
+  <si>
+    <t>? ? PRS CCU</t>
+  </si>
+  <si>
+    <t>JJC CCB ? PRP</t>
+  </si>
+  <si>
+    <t>tulad ng isip natin</t>
+  </si>
+  <si>
+    <t>sa isa ang anuman</t>
+  </si>
+  <si>
+    <t>CCR CCR VBW</t>
+  </si>
+  <si>
+    <t>? RBI CCT</t>
+  </si>
+  <si>
+    <t>maslaki pa sa</t>
+  </si>
+  <si>
+    <t>VBAF CCB RBD</t>
+  </si>
+  <si>
+    <t>akyat ng tayo</t>
+  </si>
+  <si>
+    <t>CCT ? FW</t>
+  </si>
+  <si>
+    <t>kahit ano organic</t>
+  </si>
+  <si>
+    <t>DTC ? CCP NNC</t>
+  </si>
+  <si>
+    <t>ang masliit na sipit</t>
+  </si>
+  <si>
+    <t>DTC ? NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>ang puti laman ng niyog</t>
+  </si>
+  <si>
+    <t>VBAF CCB ?</t>
+  </si>
+  <si>
+    <t>hinga ng masdali</t>
+  </si>
+  <si>
+    <t>? VBTF CCT NNC</t>
+  </si>
+  <si>
+    <t>pag aral sa sekswal</t>
+  </si>
+  <si>
+    <t>CCT DTCP ? PRO</t>
+  </si>
+  <si>
+    <t>sa mga iba nito</t>
+  </si>
+  <si>
+    <t>kuha ng deposito</t>
+  </si>
+  <si>
+    <t>? JJD_CCP NNC CCB</t>
+  </si>
+  <si>
+    <t>pinaka bago uri ng</t>
+  </si>
+  <si>
+    <t>DTC VBW CCB JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>ang ayon ng lima dahon</t>
+  </si>
+  <si>
+    <t>?  CCB JJD</t>
+  </si>
+  <si>
+    <t>tukoy ng kaliwa</t>
   </si>
 </sst>
 </file>
@@ -2696,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5347,6 +5494,12 @@
       <c r="B191" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="C191" t="s">
+        <v>750</v>
+      </c>
+      <c r="D191" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
@@ -5355,237 +5508,417 @@
       <c r="B192" s="11" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>751</v>
+      </c>
+      <c r="D192" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
         <v>371</v>
       </c>
       <c r="B193" s="11" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>752</v>
+      </c>
+      <c r="D193" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
         <v>373</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>754</v>
+      </c>
+      <c r="D194" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>375</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>757</v>
+      </c>
+      <c r="D195" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
         <v>377</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>758</v>
+      </c>
+      <c r="D196" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
         <v>379</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>760</v>
+      </c>
+      <c r="D197" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
         <v>381</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>762</v>
+      </c>
+      <c r="D198" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
         <v>383</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>662</v>
+      </c>
+      <c r="D199" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
         <v>385</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>660</v>
+      </c>
+      <c r="D200" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
         <v>387</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>764</v>
+      </c>
+      <c r="D201" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
         <v>389</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>766</v>
+      </c>
+      <c r="D202" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>391</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>767</v>
+      </c>
+      <c r="D203" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
         <v>393</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>769</v>
+      </c>
+      <c r="D204" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
         <v>395</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>771</v>
+      </c>
+      <c r="D205" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>523</v>
+      </c>
+      <c r="D207" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
         <v>397</v>
       </c>
       <c r="B208" s="13" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>772</v>
+      </c>
+      <c r="D208" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B209" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>525</v>
+      </c>
+      <c r="D209" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
         <v>399</v>
       </c>
       <c r="B210" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>775</v>
+      </c>
+      <c r="D210" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>402</v>
       </c>
       <c r="B211" s="15" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>776</v>
+      </c>
+      <c r="D211" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>400</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>778</v>
+      </c>
+      <c r="D212" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
         <v>404</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>780</v>
+      </c>
+      <c r="D213" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>406</v>
       </c>
       <c r="B214" s="15" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>782</v>
+      </c>
+      <c r="D214" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
         <v>408</v>
       </c>
       <c r="B215" s="15" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>784</v>
+      </c>
+      <c r="D215" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>410</v>
       </c>
       <c r="B216" s="15" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>786</v>
+      </c>
+      <c r="D216" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>412</v>
       </c>
       <c r="B217" s="15" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>788</v>
+      </c>
+      <c r="D217" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>414</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>790</v>
+      </c>
+      <c r="D218" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>416</v>
       </c>
       <c r="B219" s="15" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>460</v>
+      </c>
+      <c r="D219" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>418</v>
       </c>
       <c r="B220" s="15" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>793</v>
+      </c>
+      <c r="D220" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
         <v>420</v>
       </c>
       <c r="B221" s="15" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>795</v>
+      </c>
+      <c r="D221" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>422</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>423</v>
+      </c>
+      <c r="C222" t="s">
+        <v>797</v>
+      </c>
+      <c r="D222" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
+++ b/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Workspaces\Java\NGramChecker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="37392" windowHeight="12588"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="37395" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2597,7 +2592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2632,7 +2627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2843,16 +2838,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -2869,7 +2864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2883,7 +2878,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2897,7 +2892,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2911,7 +2906,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2925,7 +2920,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2939,7 +2934,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2953,7 +2948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2967,7 +2962,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2981,7 +2976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2995,7 +2990,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -3009,7 +3004,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -3023,7 +3018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -3037,7 +3032,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -3051,7 +3046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -3065,7 +3060,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -3079,7 +3074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3093,7 +3088,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3102,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -3121,7 +3116,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -3135,7 +3130,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -3149,7 +3144,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -3163,7 +3158,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -3177,7 +3172,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -3191,7 +3186,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -3205,7 +3200,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -3219,7 +3214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -3233,7 +3228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -3247,7 +3242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -3261,7 +3256,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -3275,7 +3270,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -3289,7 +3284,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -3303,7 +3298,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
@@ -3317,7 +3312,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -3331,7 +3326,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
@@ -3345,7 +3340,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -3359,7 +3354,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
@@ -3373,7 +3368,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -3387,7 +3382,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>80</v>
       </c>
@@ -3401,7 +3396,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
@@ -3415,7 +3410,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
@@ -3429,7 +3424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -3443,7 +3438,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>88</v>
       </c>
@@ -3457,7 +3452,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>90</v>
       </c>
@@ -3471,7 +3466,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>92</v>
       </c>
@@ -3485,7 +3480,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>94</v>
       </c>
@@ -3499,7 +3494,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>96</v>
       </c>
@@ -3513,7 +3508,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
@@ -3527,7 +3522,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
@@ -3541,7 +3536,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>102</v>
       </c>
@@ -3555,7 +3550,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>140</v>
       </c>
@@ -3569,7 +3564,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
@@ -3583,7 +3578,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>144</v>
       </c>
@@ -3597,7 +3592,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>146</v>
       </c>
@@ -3611,7 +3606,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>148</v>
       </c>
@@ -3625,7 +3620,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -3639,7 +3634,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>151</v>
       </c>
@@ -3653,7 +3648,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>153</v>
       </c>
@@ -3667,7 +3662,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3681,7 +3676,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>105</v>
       </c>
@@ -3695,7 +3690,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>107</v>
       </c>
@@ -3709,7 +3704,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>529</v>
       </c>
@@ -3723,7 +3718,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>109</v>
       </c>
@@ -3737,7 +3732,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>111</v>
       </c>
@@ -3751,7 +3746,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>113</v>
       </c>
@@ -3765,7 +3760,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>115</v>
       </c>
@@ -3779,7 +3774,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>539</v>
       </c>
@@ -3793,7 +3788,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>117</v>
       </c>
@@ -3807,7 +3802,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>155</v>
       </c>
@@ -3821,7 +3816,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>157</v>
       </c>
@@ -3835,7 +3830,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>159</v>
       </c>
@@ -3849,7 +3844,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>160</v>
       </c>
@@ -3863,7 +3858,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>120</v>
       </c>
@@ -3877,7 +3872,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>122</v>
       </c>
@@ -3891,7 +3886,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>124</v>
       </c>
@@ -3905,7 +3900,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>162</v>
       </c>
@@ -3919,7 +3914,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>164</v>
       </c>
@@ -3933,7 +3928,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>126</v>
       </c>
@@ -3947,7 +3942,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>166</v>
       </c>
@@ -3961,7 +3956,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>168</v>
       </c>
@@ -3975,7 +3970,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>128</v>
       </c>
@@ -3989,7 +3984,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>170</v>
       </c>
@@ -4003,7 +3998,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>172</v>
       </c>
@@ -4017,7 +4012,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>174</v>
       </c>
@@ -4031,7 +4026,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>176</v>
       </c>
@@ -4045,7 +4040,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>178</v>
       </c>
@@ -4059,7 +4054,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>180</v>
       </c>
@@ -4073,7 +4068,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>182</v>
       </c>
@@ -4087,7 +4082,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>184</v>
       </c>
@@ -4101,7 +4096,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>186</v>
       </c>
@@ -4115,7 +4110,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>188</v>
       </c>
@@ -4129,7 +4124,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>190</v>
       </c>
@@ -4143,7 +4138,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>192</v>
       </c>
@@ -4157,7 +4152,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>130</v>
       </c>
@@ -4171,7 +4166,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>194</v>
       </c>
@@ -4185,7 +4180,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>196</v>
       </c>
@@ -4199,7 +4194,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>198</v>
       </c>
@@ -4213,7 +4208,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>132</v>
       </c>
@@ -4227,7 +4222,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>200</v>
       </c>
@@ -4241,7 +4236,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>202</v>
       </c>
@@ -4255,7 +4250,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>204</v>
       </c>
@@ -4269,7 +4264,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>206</v>
       </c>
@@ -4283,7 +4278,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>134</v>
       </c>
@@ -4297,7 +4292,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>136</v>
       </c>
@@ -4311,7 +4306,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>138</v>
       </c>
@@ -4325,7 +4320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>208</v>
       </c>
@@ -4339,7 +4334,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>210</v>
       </c>
@@ -4353,7 +4348,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>240</v>
       </c>
@@ -4367,7 +4362,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
         <v>617</v>
       </c>
@@ -4381,7 +4376,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>243</v>
       </c>
@@ -4395,7 +4390,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>245</v>
       </c>
@@ -4409,7 +4404,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>247</v>
       </c>
@@ -4423,7 +4418,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
         <v>249</v>
       </c>
@@ -4437,7 +4432,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>251</v>
       </c>
@@ -4451,7 +4446,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>253</v>
       </c>
@@ -4465,7 +4460,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
         <v>255</v>
       </c>
@@ -4479,7 +4474,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>257</v>
       </c>
@@ -4493,7 +4488,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>259</v>
       </c>
@@ -4507,7 +4502,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
         <v>261</v>
       </c>
@@ -4521,7 +4516,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>263</v>
       </c>
@@ -4535,7 +4530,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>265</v>
       </c>
@@ -4549,7 +4544,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>267</v>
       </c>
@@ -4563,7 +4558,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
         <v>638</v>
       </c>
@@ -4577,7 +4572,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>269</v>
       </c>
@@ -4591,7 +4586,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>212</v>
       </c>
@@ -4605,7 +4600,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>271</v>
       </c>
@@ -4619,7 +4614,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
         <v>273</v>
       </c>
@@ -4633,7 +4628,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>275</v>
       </c>
@@ -4647,7 +4642,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>277</v>
       </c>
@@ -4661,7 +4656,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>279</v>
       </c>
@@ -4675,7 +4670,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>281</v>
       </c>
@@ -4689,7 +4684,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>283</v>
       </c>
@@ -4703,7 +4698,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>285</v>
       </c>
@@ -4717,7 +4712,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>287</v>
       </c>
@@ -4731,7 +4726,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
         <v>289</v>
       </c>
@@ -4745,7 +4740,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>291</v>
       </c>
@@ -4759,7 +4754,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>293</v>
       </c>
@@ -4773,7 +4768,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>295</v>
       </c>
@@ -4787,7 +4782,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>297</v>
       </c>
@@ -4801,7 +4796,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>299</v>
       </c>
@@ -4815,7 +4810,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
         <v>214</v>
       </c>
@@ -4829,7 +4824,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>301</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>303</v>
       </c>
@@ -4857,7 +4852,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>305</v>
       </c>
@@ -4871,7 +4866,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>216</v>
       </c>
@@ -4885,7 +4880,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>218</v>
       </c>
@@ -4899,7 +4894,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>307</v>
       </c>
@@ -4913,7 +4908,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>220</v>
       </c>
@@ -4927,7 +4922,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>309</v>
       </c>
@@ -4941,7 +4936,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>311</v>
       </c>
@@ -4955,7 +4950,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>222</v>
       </c>
@@ -4969,7 +4964,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>313</v>
       </c>
@@ -4983,7 +4978,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
         <v>315</v>
       </c>
@@ -4997,7 +4992,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
         <v>224</v>
       </c>
@@ -5011,7 +5006,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
         <v>226</v>
       </c>
@@ -5025,7 +5020,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>228</v>
       </c>
@@ -5039,7 +5034,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
         <v>317</v>
       </c>
@@ -5053,7 +5048,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
         <v>319</v>
       </c>
@@ -5067,7 +5062,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
         <v>321</v>
       </c>
@@ -5081,7 +5076,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
         <v>706</v>
       </c>
@@ -5095,7 +5090,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
         <v>323</v>
       </c>
@@ -5109,7 +5104,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
         <v>325</v>
       </c>
@@ -5123,7 +5118,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
         <v>327</v>
       </c>
@@ -5137,7 +5132,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
         <v>329</v>
       </c>
@@ -5151,7 +5146,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
         <v>230</v>
       </c>
@@ -5165,7 +5160,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
         <v>331</v>
       </c>
@@ -5179,7 +5174,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
         <v>333</v>
       </c>
@@ -5193,7 +5188,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
         <v>232</v>
       </c>
@@ -5207,7 +5202,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>234</v>
       </c>
@@ -5221,7 +5216,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
         <v>335</v>
       </c>
@@ -5235,7 +5230,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
         <v>337</v>
       </c>
@@ -5249,7 +5244,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
         <v>339</v>
       </c>
@@ -5263,7 +5258,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
         <v>726</v>
       </c>
@@ -5277,7 +5272,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>341</v>
       </c>
@@ -5291,7 +5286,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>236</v>
       </c>
@@ -5305,7 +5300,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>343</v>
       </c>
@@ -5319,7 +5314,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>345</v>
       </c>
@@ -5333,7 +5328,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>347</v>
       </c>
@@ -5347,7 +5342,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>349</v>
       </c>
@@ -5361,7 +5356,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>351</v>
       </c>
@@ -5375,7 +5370,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
         <v>353</v>
       </c>
@@ -5389,7 +5384,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
         <v>355</v>
       </c>
@@ -5403,7 +5398,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
         <v>357</v>
       </c>
@@ -5417,7 +5412,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
         <v>359</v>
       </c>
@@ -5431,7 +5426,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
         <v>361</v>
       </c>
@@ -5445,7 +5440,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
         <v>363</v>
       </c>
@@ -5459,7 +5454,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
         <v>365</v>
       </c>
@@ -5473,7 +5468,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>367</v>
       </c>
@@ -5487,7 +5482,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
         <v>238</v>
       </c>
@@ -5501,7 +5496,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
         <v>369</v>
       </c>
@@ -5515,7 +5510,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
         <v>371</v>
       </c>
@@ -5529,7 +5524,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
         <v>373</v>
       </c>
@@ -5543,7 +5538,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>375</v>
       </c>
@@ -5557,7 +5552,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
         <v>377</v>
       </c>
@@ -5571,7 +5566,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
         <v>379</v>
       </c>
@@ -5585,7 +5580,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
         <v>381</v>
       </c>
@@ -5599,7 +5594,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
         <v>383</v>
       </c>
@@ -5613,7 +5608,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
         <v>385</v>
       </c>
@@ -5627,7 +5622,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
         <v>387</v>
       </c>
@@ -5641,7 +5636,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
         <v>389</v>
       </c>
@@ -5655,7 +5650,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>391</v>
       </c>
@@ -5669,7 +5664,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
         <v>393</v>
       </c>
@@ -5683,7 +5678,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
         <v>395</v>
       </c>
@@ -5697,7 +5692,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A207" s="13" t="s">
         <v>2</v>
       </c>
@@ -5711,7 +5706,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
         <v>397</v>
       </c>
@@ -5725,7 +5720,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A209" s="13" t="s">
         <v>105</v>
       </c>
@@ -5739,7 +5734,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
         <v>399</v>
       </c>
@@ -5933,7 +5928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5945,7 +5940,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
+++ b/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="797">
   <si>
     <t>Incorrect</t>
   </si>
@@ -690,9 +690,6 @@
     <t>Pagkatapos nang mahaba</t>
   </si>
   <si>
-    <t>Walang  ng natitirang</t>
-  </si>
-  <si>
     <t>Wala nang natitirang</t>
   </si>
   <si>
@@ -1554,12 +1551,6 @@
     <t>? FW CCB FW FW</t>
   </si>
   <si>
-    <t>DTCP ?</t>
-  </si>
-  <si>
-    <t>ng_mga computer</t>
-  </si>
-  <si>
     <t>NNC CCB NNC_CCP CDB</t>
   </si>
   <si>
@@ -1734,12 +1725,6 @@
     <t>tuloy parin isa halaga daan</t>
   </si>
   <si>
-    <t>CCA JJN CCT</t>
-  </si>
-  <si>
-    <t>at ika sampu</t>
-  </si>
-  <si>
     <t>CCT JJCS_JJD_CCP NNC</t>
   </si>
   <si>
@@ -2307,9 +2292,6 @@
     <t>RBW NNC CCP PRO</t>
   </si>
   <si>
-    <t>pag ipon ng pondo</t>
-  </si>
-  <si>
     <t>? CCB JJD_CCP NNC_CCP</t>
   </si>
   <si>
@@ -2382,12 +2364,6 @@
     <t>hinga ng masdali</t>
   </si>
   <si>
-    <t>? VBTF CCT NNC</t>
-  </si>
-  <si>
-    <t>pag aral sa sekswal</t>
-  </si>
-  <si>
     <t>CCT DTCP ? PRO</t>
   </si>
   <si>
@@ -2413,6 +2389,24 @@
   </si>
   <si>
     <t>tukoy ng kaliwa</t>
+  </si>
+  <si>
+    <t>DTCP ? .</t>
+  </si>
+  <si>
+    <t>CCA ? JJN CCT</t>
+  </si>
+  <si>
+    <t>Walang ng natitirang</t>
+  </si>
+  <si>
+    <t>CCT ? NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>ang pag aral sa sekswal</t>
+  </si>
+  <si>
+    <t>DTC ? VBTF CCT NNC</t>
   </si>
 </sst>
 </file>
@@ -2838,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,10 +2866,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" t="s">
         <v>424</v>
-      </c>
-      <c r="D2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2886,10 +2880,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" t="s">
         <v>426</v>
-      </c>
-      <c r="D3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2900,10 +2894,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2914,10 +2908,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" t="s">
         <v>430</v>
-      </c>
-      <c r="D5" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2928,10 +2922,10 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" t="s">
         <v>432</v>
-      </c>
-      <c r="D6" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2942,7 +2936,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -2956,10 +2950,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" t="s">
         <v>435</v>
-      </c>
-      <c r="D8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2970,7 +2964,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2984,10 +2978,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" t="s">
         <v>438</v>
-      </c>
-      <c r="D10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2998,10 +2992,10 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" t="s">
         <v>440</v>
-      </c>
-      <c r="D11" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3012,7 +3006,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -3026,10 +3020,10 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" t="s">
         <v>443</v>
-      </c>
-      <c r="D13" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3040,7 +3034,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -3054,10 +3048,10 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D15" t="s">
         <v>446</v>
-      </c>
-      <c r="D15" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3068,7 +3062,7 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
@@ -3082,10 +3076,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" t="s">
         <v>449</v>
-      </c>
-      <c r="D17" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3096,10 +3090,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3110,10 +3104,10 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
+        <v>451</v>
+      </c>
+      <c r="D19" t="s">
         <v>452</v>
-      </c>
-      <c r="D19" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3124,10 +3118,10 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" t="s">
         <v>454</v>
-      </c>
-      <c r="D20" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3138,10 +3132,10 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21" t="s">
         <v>456</v>
-      </c>
-      <c r="D21" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3152,10 +3146,10 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
+        <v>457</v>
+      </c>
+      <c r="D22" t="s">
         <v>458</v>
-      </c>
-      <c r="D22" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3166,10 +3160,10 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
+        <v>459</v>
+      </c>
+      <c r="D23" t="s">
         <v>460</v>
-      </c>
-      <c r="D23" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3180,10 +3174,10 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" t="s">
         <v>462</v>
-      </c>
-      <c r="D24" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3194,10 +3188,10 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D25" t="s">
         <v>464</v>
-      </c>
-      <c r="D25" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3208,7 +3202,7 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
@@ -3222,7 +3216,7 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D27" t="s">
         <v>56</v>
@@ -3236,7 +3230,7 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
@@ -3250,10 +3244,10 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" t="s">
         <v>469</v>
-      </c>
-      <c r="D29" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3264,7 +3258,7 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D30" t="s">
         <v>62</v>
@@ -3278,10 +3272,10 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
+        <v>471</v>
+      </c>
+      <c r="D31" t="s">
         <v>472</v>
-      </c>
-      <c r="D31" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3292,10 +3286,10 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
+        <v>473</v>
+      </c>
+      <c r="D32" t="s">
         <v>474</v>
-      </c>
-      <c r="D32" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3306,10 +3300,10 @@
         <v>69</v>
       </c>
       <c r="C33" t="s">
+        <v>475</v>
+      </c>
+      <c r="D33" t="s">
         <v>476</v>
-      </c>
-      <c r="D33" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3320,10 +3314,10 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D34" t="s">
         <v>478</v>
-      </c>
-      <c r="D34" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3334,10 +3328,10 @@
         <v>73</v>
       </c>
       <c r="C35" t="s">
+        <v>479</v>
+      </c>
+      <c r="D35" t="s">
         <v>480</v>
-      </c>
-      <c r="D35" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3348,7 +3342,7 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -3362,13 +3356,13 @@
         <v>77</v>
       </c>
       <c r="C37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D37" t="s">
         <v>483</v>
       </c>
-      <c r="D37" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -3376,13 +3370,13 @@
         <v>79</v>
       </c>
       <c r="C38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" t="s">
         <v>485</v>
       </c>
-      <c r="D38" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>80</v>
       </c>
@@ -3390,13 +3384,13 @@
         <v>81</v>
       </c>
       <c r="C39" t="s">
+        <v>486</v>
+      </c>
+      <c r="D39" t="s">
         <v>487</v>
       </c>
-      <c r="D39" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
@@ -3404,13 +3398,13 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
+        <v>488</v>
+      </c>
+      <c r="D40" t="s">
         <v>489</v>
       </c>
-      <c r="D40" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
@@ -3418,13 +3412,13 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -3432,13 +3426,13 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
+        <v>491</v>
+      </c>
+      <c r="D42" t="s">
         <v>492</v>
       </c>
-      <c r="D42" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>88</v>
       </c>
@@ -3446,13 +3440,13 @@
         <v>89</v>
       </c>
       <c r="C43" t="s">
+        <v>493</v>
+      </c>
+      <c r="D43" t="s">
         <v>494</v>
       </c>
-      <c r="D43" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>90</v>
       </c>
@@ -3460,13 +3454,13 @@
         <v>91</v>
       </c>
       <c r="C44" t="s">
+        <v>495</v>
+      </c>
+      <c r="D44" t="s">
         <v>496</v>
       </c>
-      <c r="D44" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>92</v>
       </c>
@@ -3474,13 +3468,13 @@
         <v>93</v>
       </c>
       <c r="C45" t="s">
+        <v>497</v>
+      </c>
+      <c r="D45" t="s">
         <v>498</v>
       </c>
-      <c r="D45" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>94</v>
       </c>
@@ -3488,13 +3482,13 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46" t="s">
         <v>500</v>
       </c>
-      <c r="D46" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>96</v>
       </c>
@@ -3502,13 +3496,13 @@
         <v>97</v>
       </c>
       <c r="C47" t="s">
+        <v>501</v>
+      </c>
+      <c r="D47" t="s">
         <v>502</v>
       </c>
-      <c r="D47" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
@@ -3516,13 +3510,13 @@
         <v>99</v>
       </c>
       <c r="C48" t="s">
+        <v>503</v>
+      </c>
+      <c r="D48" t="s">
         <v>504</v>
       </c>
-      <c r="D48" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
@@ -3530,13 +3524,13 @@
         <v>101</v>
       </c>
       <c r="C49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D49" t="s">
         <v>506</v>
       </c>
-      <c r="D49" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>102</v>
       </c>
@@ -3544,13 +3538,13 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D50" t="s">
         <v>508</v>
       </c>
-      <c r="D50" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>140</v>
       </c>
@@ -3558,13 +3552,13 @@
         <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D52" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
@@ -3572,13 +3566,13 @@
         <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D53" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>144</v>
       </c>
@@ -3586,13 +3580,13 @@
         <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>512</v>
+        <v>791</v>
       </c>
       <c r="D54" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>146</v>
       </c>
@@ -3600,13 +3594,13 @@
         <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D55" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>148</v>
       </c>
@@ -3614,13 +3608,13 @@
         <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D56" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -3628,13 +3622,13 @@
         <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D57" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>151</v>
       </c>
@@ -3642,13 +3636,13 @@
         <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D58" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>153</v>
       </c>
@@ -3656,13 +3650,13 @@
         <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D59" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3670,13 +3664,13 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D60" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>105</v>
       </c>
@@ -3684,13 +3678,13 @@
         <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D61" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>107</v>
       </c>
@@ -3698,27 +3692,27 @@
         <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C63" t="s">
+        <v>525</v>
+      </c>
+      <c r="D63" t="s">
         <v>528</v>
       </c>
-      <c r="D63" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>109</v>
       </c>
@@ -3726,13 +3720,13 @@
         <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D64" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>111</v>
       </c>
@@ -3740,13 +3734,13 @@
         <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D65" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>113</v>
       </c>
@@ -3754,13 +3748,13 @@
         <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D66" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>115</v>
       </c>
@@ -3768,27 +3762,27 @@
         <v>116</v>
       </c>
       <c r="C67" t="s">
+        <v>534</v>
+      </c>
+      <c r="D67" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C68" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+      <c r="D68" t="s">
         <v>539</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="C68" t="s">
-        <v>541</v>
-      </c>
-      <c r="D68" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>117</v>
       </c>
@@ -3796,13 +3790,13 @@
         <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D69" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>155</v>
       </c>
@@ -3810,13 +3804,13 @@
         <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D70" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>157</v>
       </c>
@@ -3824,13 +3818,13 @@
         <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D71" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>159</v>
       </c>
@@ -3838,13 +3832,13 @@
         <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D72" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>160</v>
       </c>
@@ -3852,13 +3846,13 @@
         <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D73" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>120</v>
       </c>
@@ -3866,13 +3860,13 @@
         <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D74" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>122</v>
       </c>
@@ -3880,13 +3874,13 @@
         <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>124</v>
       </c>
@@ -3894,13 +3888,13 @@
         <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D76" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>162</v>
       </c>
@@ -3908,13 +3902,13 @@
         <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D77" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>164</v>
       </c>
@@ -3922,13 +3916,13 @@
         <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D78" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>126</v>
       </c>
@@ -3936,13 +3930,13 @@
         <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D79" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>166</v>
       </c>
@@ -3950,13 +3944,13 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D80" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>168</v>
       </c>
@@ -3964,13 +3958,13 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D81" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>128</v>
       </c>
@@ -3978,13 +3972,13 @@
         <v>129</v>
       </c>
       <c r="C82" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>170</v>
       </c>
@@ -3992,13 +3986,13 @@
         <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D83" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>172</v>
       </c>
@@ -4006,13 +4000,13 @@
         <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D84" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>174</v>
       </c>
@@ -4020,13 +4014,13 @@
         <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>572</v>
+        <v>792</v>
       </c>
       <c r="D85" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>176</v>
       </c>
@@ -4034,13 +4028,13 @@
         <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D86" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>178</v>
       </c>
@@ -4048,13 +4042,13 @@
         <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D87" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>180</v>
       </c>
@@ -4062,13 +4056,13 @@
         <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D88" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>182</v>
       </c>
@@ -4076,13 +4070,13 @@
         <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D89" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>184</v>
       </c>
@@ -4090,13 +4084,13 @@
         <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D90" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>186</v>
       </c>
@@ -4104,13 +4098,13 @@
         <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D91" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>188</v>
       </c>
@@ -4118,13 +4112,13 @@
         <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D92" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>190</v>
       </c>
@@ -4132,13 +4126,13 @@
         <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D93" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>192</v>
       </c>
@@ -4146,13 +4140,13 @@
         <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D94" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>130</v>
       </c>
@@ -4160,13 +4154,13 @@
         <v>131</v>
       </c>
       <c r="C95" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D95" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>194</v>
       </c>
@@ -4174,13 +4168,13 @@
         <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D96" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>196</v>
       </c>
@@ -4188,13 +4182,13 @@
         <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D97" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>198</v>
       </c>
@@ -4202,13 +4196,13 @@
         <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D98" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>132</v>
       </c>
@@ -4216,13 +4210,13 @@
         <v>133</v>
       </c>
       <c r="C99" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D99" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>200</v>
       </c>
@@ -4230,13 +4224,13 @@
         <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D100" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>202</v>
       </c>
@@ -4244,13 +4238,13 @@
         <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D101" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>204</v>
       </c>
@@ -4258,13 +4252,13 @@
         <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D102" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>206</v>
       </c>
@@ -4272,13 +4266,13 @@
         <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D103" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>134</v>
       </c>
@@ -4286,13 +4280,13 @@
         <v>135</v>
       </c>
       <c r="C104" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D104" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>136</v>
       </c>
@@ -4300,13 +4294,13 @@
         <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D105" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>138</v>
       </c>
@@ -4314,13 +4308,13 @@
         <v>139</v>
       </c>
       <c r="C106" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D106" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>208</v>
       </c>
@@ -4328,13 +4322,13 @@
         <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D107" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>210</v>
       </c>
@@ -4342,251 +4336,251 @@
         <v>211</v>
       </c>
       <c r="C108" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D108" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" t="s">
+        <v>610</v>
+      </c>
+      <c r="D110" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C111" t="s">
+        <v>611</v>
+      </c>
+      <c r="D111" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="D112" t="s">
         <v>615</v>
       </c>
-      <c r="D110" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C113" t="s">
+        <v>616</v>
+      </c>
+      <c r="D113" t="s">
         <v>617</v>
       </c>
-      <c r="B111" s="11" t="s">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C114" t="s">
         <v>618</v>
       </c>
-      <c r="C111" t="s">
-        <v>616</v>
-      </c>
-      <c r="D111" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D114" t="s">
         <v>619</v>
       </c>
-      <c r="D112" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" t="s">
+        <v>459</v>
+      </c>
+      <c r="D115" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C113" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" t="s">
         <v>621</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D116" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A114" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C114" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>600</v>
+      </c>
+      <c r="D117" t="s">
         <v>623</v>
       </c>
-      <c r="D114" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" t="s">
+        <v>657</v>
+      </c>
+      <c r="D118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C119" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" t="s">
-        <v>460</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="D119" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C116" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" t="s">
         <v>626</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D120" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C117" t="s">
-        <v>605</v>
-      </c>
-      <c r="D117" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A118" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C118" t="s">
-        <v>662</v>
-      </c>
-      <c r="D118" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" t="s">
         <v>629</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D122" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A120" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C120" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" t="s">
         <v>631</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D123" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C124" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="D124" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="D121" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A122" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B125" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="D122" t="s">
+      <c r="C125" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D125" t="s">
         <v>636</v>
       </c>
-      <c r="D123" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A124" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B124" s="11" t="s">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B126" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" t="s">
         <v>637</v>
       </c>
-      <c r="D124" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
+      <c r="D126" t="s">
         <v>638</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="C125" t="s">
-        <v>640</v>
-      </c>
-      <c r="D125" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126" t="s">
-        <v>642</v>
-      </c>
-      <c r="D126" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>212</v>
       </c>
@@ -4594,223 +4588,223 @@
         <v>213</v>
       </c>
       <c r="C127" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D127" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="C128" t="s">
+        <v>640</v>
+      </c>
+      <c r="D128" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C128" t="s">
+      <c r="B129" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" t="s">
+        <v>642</v>
+      </c>
+      <c r="D129" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" t="s">
+        <v>643</v>
+      </c>
+      <c r="D130" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" t="s">
         <v>645</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D131" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A129" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C129" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" t="s">
         <v>647</v>
       </c>
-      <c r="D129" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D132" t="s">
         <v>648</v>
       </c>
-      <c r="D130" t="s">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" t="s">
+        <v>546</v>
+      </c>
+      <c r="D133" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C131" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" t="s">
         <v>650</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D134" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C132" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" t="s">
         <v>652</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D135" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A133" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C133" t="s">
-        <v>549</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="D136" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A134" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C134" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" t="s">
         <v>655</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D137" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A135" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C135" t="s">
-        <v>657</v>
-      </c>
-      <c r="D135" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A136" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="D138" t="s">
         <v>658</v>
       </c>
-      <c r="D136" t="s">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" t="s">
+        <v>429</v>
+      </c>
+      <c r="D139" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A137" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C137" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" t="s">
         <v>660</v>
       </c>
-      <c r="D137" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A138" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D140" t="s">
         <v>661</v>
       </c>
-      <c r="D138" t="s">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" t="s">
+        <v>616</v>
+      </c>
+      <c r="D141" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A139" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C139" t="s">
-        <v>430</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="D142" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A140" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C140" t="s">
-        <v>665</v>
-      </c>
-      <c r="D140" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C141" t="s">
-        <v>621</v>
-      </c>
-      <c r="D141" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A142" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C142" t="s">
-        <v>668</v>
-      </c>
-      <c r="D142" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>214</v>
       </c>
@@ -4818,55 +4812,55 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D143" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B144" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="C144" t="s">
+        <v>667</v>
+      </c>
+      <c r="D144" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C144" t="s">
-        <v>672</v>
-      </c>
-      <c r="D144" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A145" s="11" t="s">
+      <c r="B145" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="C145" t="s">
+        <v>668</v>
+      </c>
+      <c r="D145" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C145" t="s">
-        <v>673</v>
-      </c>
-      <c r="D145" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A146" s="12" t="s">
+      <c r="B146" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B146" s="12" t="s">
-        <v>306</v>
-      </c>
       <c r="C146" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D146" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>216</v>
       </c>
@@ -4874,13 +4868,13 @@
         <v>217</v>
       </c>
       <c r="C147" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D147" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>218</v>
       </c>
@@ -4888,27 +4882,27 @@
         <v>219</v>
       </c>
       <c r="C148" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D148" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>308</v>
-      </c>
       <c r="C149" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D149" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>220</v>
       </c>
@@ -4916,41 +4910,41 @@
         <v>221</v>
       </c>
       <c r="C150" t="s">
+        <v>676</v>
+      </c>
+      <c r="D150" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C151" t="s">
+        <v>678</v>
+      </c>
+      <c r="D151" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C152" t="s">
+        <v>680</v>
+      </c>
+      <c r="D152" t="s">
         <v>681</v>
       </c>
-      <c r="D150" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A151" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C151" t="s">
-        <v>683</v>
-      </c>
-      <c r="D151" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A152" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C152" t="s">
-        <v>685</v>
-      </c>
-      <c r="D152" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>222</v>
       </c>
@@ -4958,741 +4952,741 @@
         <v>223</v>
       </c>
       <c r="C153" t="s">
+        <v>682</v>
+      </c>
+      <c r="D153" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C154" t="s">
+        <v>684</v>
+      </c>
+      <c r="D154" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C155" t="s">
+        <v>686</v>
+      </c>
+      <c r="D155" t="s">
         <v>687</v>
       </c>
-      <c r="D153" t="s">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C156" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A154" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="D156" t="s">
         <v>689</v>
       </c>
-      <c r="D154" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C157" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A155" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B155" s="11" t="s">
+      <c r="D157" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C158" t="s">
+        <v>692</v>
+      </c>
+      <c r="D158" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C155" t="s">
-        <v>691</v>
-      </c>
-      <c r="D155" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A156" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C156" t="s">
-        <v>693</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="B159" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C159" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A157" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="D159" t="s">
         <v>695</v>
       </c>
-      <c r="D157" t="s">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C160" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A158" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B158" s="11" t="s">
+      <c r="D160" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" t="s">
+        <v>698</v>
+      </c>
+      <c r="D161" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C162" t="s">
+        <v>700</v>
+      </c>
+      <c r="D162" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" t="s">
+        <v>703</v>
+      </c>
+      <c r="D163" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" t="s">
+        <v>705</v>
+      </c>
+      <c r="D164" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C165" t="s">
+        <v>616</v>
+      </c>
+      <c r="D165" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166" t="s">
+        <v>706</v>
+      </c>
+      <c r="D166" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C158" t="s">
-        <v>697</v>
-      </c>
-      <c r="D158" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A159" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C159" t="s">
-        <v>699</v>
-      </c>
-      <c r="D159" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A160" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C160" t="s">
-        <v>701</v>
-      </c>
-      <c r="D160" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A161" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C161" t="s">
-        <v>703</v>
-      </c>
-      <c r="D161" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A162" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="B162" s="11" t="s">
+      <c r="B167" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C167" t="s">
         <v>707</v>
       </c>
-      <c r="C162" t="s">
-        <v>705</v>
-      </c>
-      <c r="D162" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A163" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D167" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" t="s">
         <v>708</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D168" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A164" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C164" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C169" t="s">
         <v>710</v>
       </c>
-      <c r="D164" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A165" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C165" t="s">
-        <v>621</v>
-      </c>
-      <c r="D165" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A166" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="D169" t="s">
         <v>711</v>
       </c>
-      <c r="D166" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A167" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B167" s="11" t="s">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B170" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C170" t="s">
         <v>712</v>
       </c>
-      <c r="D167" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A168" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="D170" t="s">
         <v>713</v>
       </c>
-      <c r="D168" t="s">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C171" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A169" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="B169" s="11" t="s">
+      <c r="D171" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C169" t="s">
+      <c r="B172" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C172" t="s">
         <v>715</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D172" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A170" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C170" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C173" t="s">
         <v>717</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D173" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A171" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B171" s="11" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C174" t="s">
+        <v>719</v>
+      </c>
+      <c r="D174" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="C175" t="s">
+        <v>723</v>
+      </c>
+      <c r="D175" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C176" t="s">
+        <v>724</v>
+      </c>
+      <c r="D176" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C171" t="s">
-        <v>719</v>
-      </c>
-      <c r="D171" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A172" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C172" t="s">
-        <v>720</v>
-      </c>
-      <c r="D172" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A173" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C173" t="s">
-        <v>722</v>
-      </c>
-      <c r="D173" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A174" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C174" t="s">
-        <v>724</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="B177" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C177" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A175" s="11" t="s">
+      <c r="D177" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C178" t="s">
         <v>726</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="D178" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C179" t="s">
         <v>727</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D179" t="s">
         <v>728</v>
       </c>
-      <c r="D175" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A176" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C176" t="s">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C180" t="s">
         <v>729</v>
       </c>
-      <c r="D176" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A177" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B177" s="12" t="s">
+      <c r="D180" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C181" t="s">
+        <v>730</v>
+      </c>
+      <c r="D181" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C182" t="s">
+        <v>732</v>
+      </c>
+      <c r="D182" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C183" t="s">
+        <v>733</v>
+      </c>
+      <c r="D183" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C184" t="s">
+        <v>734</v>
+      </c>
+      <c r="D184" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C185" t="s">
+        <v>736</v>
+      </c>
+      <c r="D185" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" t="s">
+        <v>737</v>
+      </c>
+      <c r="D186" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C187" t="s">
+        <v>739</v>
+      </c>
+      <c r="D187" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C188" t="s">
+        <v>740</v>
+      </c>
+      <c r="D188" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C189" t="s">
+        <v>741</v>
+      </c>
+      <c r="D189" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C190" t="s">
+        <v>743</v>
+      </c>
+      <c r="D190" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C177" t="s">
-        <v>730</v>
-      </c>
-      <c r="D177" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A178" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C178" t="s">
-        <v>731</v>
-      </c>
-      <c r="D178" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A179" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C179" t="s">
-        <v>732</v>
-      </c>
-      <c r="D179" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A180" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C180" t="s">
-        <v>734</v>
-      </c>
-      <c r="D180" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A181" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C181" t="s">
-        <v>735</v>
-      </c>
-      <c r="D181" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A182" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C182" t="s">
-        <v>737</v>
-      </c>
-      <c r="D182" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A183" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="C183" t="s">
-        <v>738</v>
-      </c>
-      <c r="D183" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A184" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="C184" t="s">
-        <v>739</v>
-      </c>
-      <c r="D184" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A185" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C185" t="s">
-        <v>741</v>
-      </c>
-      <c r="D185" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A186" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="C186" t="s">
-        <v>742</v>
-      </c>
-      <c r="D186" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A187" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C187" t="s">
-        <v>744</v>
-      </c>
-      <c r="D187" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A188" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="B191" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C191" t="s">
         <v>745</v>
       </c>
-      <c r="D188" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A189" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="D191" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C192" t="s">
         <v>746</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D192" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C193" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A190" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="D193" t="s">
         <v>748</v>
       </c>
-      <c r="D190" t="s">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C194" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A191" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="D194" t="s">
         <v>750</v>
       </c>
-      <c r="D191" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A192" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="C192" t="s">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C195" t="s">
+        <v>752</v>
+      </c>
+      <c r="D195" t="s">
         <v>751</v>
       </c>
-      <c r="D192" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A193" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C193" t="s">
-        <v>752</v>
-      </c>
-      <c r="D193" t="s">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C196" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A194" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="D196" t="s">
         <v>754</v>
       </c>
-      <c r="D194" t="s">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C197" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A195" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="D197" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C198" t="s">
         <v>757</v>
       </c>
-      <c r="D195" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A196" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="D198" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C199" t="s">
+        <v>794</v>
+      </c>
+      <c r="D199" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C200" t="s">
+        <v>655</v>
+      </c>
+      <c r="D200" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C201" t="s">
         <v>758</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D201" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A197" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C197" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C202" t="s">
         <v>760</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D202" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C203" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A198" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="D203" t="s">
         <v>762</v>
       </c>
-      <c r="D198" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A199" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C199" t="s">
-        <v>662</v>
-      </c>
-      <c r="D199" t="s">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C204" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A200" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C200" t="s">
-        <v>660</v>
-      </c>
-      <c r="D200" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A201" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="D204" t="s">
         <v>764</v>
       </c>
-      <c r="D201" t="s">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C205" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A202" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C202" t="s">
-        <v>766</v>
-      </c>
-      <c r="D202" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A203" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C203" t="s">
-        <v>767</v>
-      </c>
-      <c r="D203" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A204" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="B204" s="11" t="s">
+      <c r="D205" t="s">
         <v>394</v>
       </c>
-      <c r="C204" t="s">
-        <v>769</v>
-      </c>
-      <c r="D204" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A205" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C205" t="s">
-        <v>771</v>
-      </c>
-      <c r="D205" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>2</v>
       </c>
@@ -5700,27 +5694,27 @@
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D207" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B208" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="B208" s="13" t="s">
-        <v>398</v>
-      </c>
       <c r="C208" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D208" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>105</v>
       </c>
@@ -5728,192 +5722,192 @@
         <v>106</v>
       </c>
       <c r="C209" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D209" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B210" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C210" t="s">
+        <v>769</v>
+      </c>
+      <c r="D210" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C211" t="s">
+        <v>770</v>
+      </c>
+      <c r="D211" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C212" t="s">
+        <v>772</v>
+      </c>
+      <c r="D212" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C213" t="s">
+        <v>774</v>
+      </c>
+      <c r="D213" t="s">
         <v>775</v>
       </c>
-      <c r="D210" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A211" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="B211" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C211" t="s">
+    </row>
+    <row r="214" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C214" t="s">
         <v>776</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D214" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="B212" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C212" t="s">
+    <row r="215" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C215" t="s">
         <v>778</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D215" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B213" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C213" t="s">
+    <row r="216" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C216" t="s">
         <v>780</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D216" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="B214" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C214" t="s">
+    <row r="217" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C217" t="s">
+        <v>796</v>
+      </c>
+      <c r="D217" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C218" t="s">
         <v>782</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D218" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A215" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B215" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C215" t="s">
+    <row r="219" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C219" t="s">
+        <v>459</v>
+      </c>
+      <c r="D219" t="s">
         <v>784</v>
       </c>
-      <c r="D215" t="s">
+    </row>
+    <row r="220" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C220" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A216" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="B216" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="C216" t="s">
+      <c r="D220" t="s">
         <v>786</v>
       </c>
-      <c r="D216" t="s">
+    </row>
+    <row r="221" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C221" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A217" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="B217" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="C217" t="s">
+      <c r="D221" t="s">
         <v>788</v>
       </c>
-      <c r="D217" t="s">
+    </row>
+    <row r="222" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C222" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A218" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="B218" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C218" t="s">
+      <c r="D222" t="s">
         <v>790</v>
-      </c>
-      <c r="D218" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A219" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="B219" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="C219" t="s">
-        <v>460</v>
-      </c>
-      <c r="D219" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="B220" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C220" t="s">
-        <v>793</v>
-      </c>
-      <c r="D220" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B221" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="C221" t="s">
-        <v>795</v>
-      </c>
-      <c r="D221" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A222" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="C222" t="s">
-        <v>797</v>
-      </c>
-      <c r="D222" t="s">
-        <v>798</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
+++ b/Test Data Per Error Type - Joey Tagged - Phrases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="37395" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="37395" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="787">
   <si>
     <t>Incorrect</t>
   </si>
@@ -156,12 +156,6 @@
     <t xml:space="preserve">sinubukan kong magmahal </t>
   </si>
   <si>
-    <t>pagnanais nalang mismo</t>
-  </si>
-  <si>
-    <t>pagnanais na lang mismo</t>
-  </si>
-  <si>
     <t>Binubukas ng pagnanais</t>
   </si>
   <si>
@@ -222,12 +216,6 @@
     <t>kakayahan ng kalikasan ng tao</t>
   </si>
   <si>
-    <t>ang pinagmulan laramihan ng ating</t>
-  </si>
-  <si>
-    <t>ang pinagmulan karamihan ng ating</t>
-  </si>
-  <si>
     <t>Noong panahon ako</t>
   </si>
   <si>
@@ -438,18 +426,6 @@
     <t>ng aktor ang</t>
   </si>
   <si>
-    <t>mga tanke ng Bretanya</t>
-  </si>
-  <si>
-    <t>mga tanke ng Britanya</t>
-  </si>
-  <si>
-    <t>anti-materiel power ng military sniper</t>
-  </si>
-  <si>
-    <t>anti-material power ng military sniper</t>
-  </si>
-  <si>
     <t>ng_mga computer .</t>
   </si>
   <si>
@@ -1389,12 +1365,6 @@
     <t>subok ko mahal</t>
   </si>
   <si>
-    <t>NNC ? RBT</t>
-  </si>
-  <si>
-    <t>nais nalang mismo</t>
-  </si>
-  <si>
     <t>? CCB NNC</t>
   </si>
   <si>
@@ -1443,12 +1413,6 @@
     <t>kakayan ng likas ng tao</t>
   </si>
   <si>
-    <t xml:space="preserve"> DTC VBRF ? CCB PRSP_CCP</t>
-  </si>
-  <si>
-    <t>ang mula laramihan ng atin</t>
-  </si>
-  <si>
     <t>RBW_CCP NNC PRS</t>
   </si>
   <si>
@@ -1461,9 +1425,6 @@
     <t>tiwala parin ako na</t>
   </si>
   <si>
-    <t>RBD NNC PRS CCB</t>
-  </si>
-  <si>
     <t>PRSP_CCP JJD_CCP CCR VBTF PMC</t>
   </si>
   <si>
@@ -1545,12 +1506,6 @@
     <t>gawa nang may malay</t>
   </si>
   <si>
-    <t>DTCP NNC CCB ?</t>
-  </si>
-  <si>
-    <t>? FW CCB FW FW</t>
-  </si>
-  <si>
     <t>NNC CCB NNC_CCP CDB</t>
   </si>
   <si>
@@ -2407,6 +2362,21 @@
   </si>
   <si>
     <t>DTC ? VBTF CCT NNC</t>
+  </si>
+  <si>
+    <t>pagnanais nalang</t>
+  </si>
+  <si>
+    <t>pagnanais na lang</t>
+  </si>
+  <si>
+    <t>NNC ?</t>
+  </si>
+  <si>
+    <t>nais nalang</t>
+  </si>
+  <si>
+    <t>? NNC PRS CCB</t>
   </si>
 </sst>
 </file>
@@ -2830,10 +2800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,10 +2836,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2880,10 +2850,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2894,10 +2864,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2908,10 +2878,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2922,10 +2892,10 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2936,7 +2906,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -2950,10 +2920,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D8" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2964,7 +2934,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2978,10 +2948,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2992,10 +2962,10 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D11" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3006,7 +2976,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -3020,10 +2990,10 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D13" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3034,7 +3004,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -3048,10 +3018,10 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3062,7 +3032,7 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
@@ -3076,10 +3046,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D17" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3090,10 +3060,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D18" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3104,10 +3074,10 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3118,10 +3088,10 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D20" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3132,612 +3102,612 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D21" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>782</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>783</v>
       </c>
       <c r="C22" t="s">
-        <v>457</v>
+        <v>784</v>
       </c>
       <c r="D22" t="s">
-        <v>458</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D23" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D24" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D25" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D29" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D31" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
-        <v>473</v>
-      </c>
-      <c r="D32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C33" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D33" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D34" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>479</v>
+        <v>786</v>
       </c>
       <c r="D35" t="s">
-        <v>480</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>469</v>
+      </c>
+      <c r="D36" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C36" t="s">
-        <v>481</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C37" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D37" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D39" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D40" t="s">
-        <v>489</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D42" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D43" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D44" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D45" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D46" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D47" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D48" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D49" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" t="s">
-        <v>507</v>
-      </c>
-      <c r="D50" t="s">
-        <v>508</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>776</v>
+      </c>
+      <c r="D51" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>791</v>
+        <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
+        <v>503</v>
+      </c>
+      <c r="D56" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>505</v>
+      </c>
+      <c r="D57" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>507</v>
+      </c>
+      <c r="D58" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>509</v>
+      </c>
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C60" t="s">
+        <v>510</v>
+      </c>
+      <c r="D60" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" t="s">
-        <v>514</v>
-      </c>
-      <c r="D57" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" t="s">
-        <v>516</v>
-      </c>
-      <c r="D58" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" t="s">
-        <v>518</v>
-      </c>
-      <c r="D59" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>520</v>
-      </c>
-      <c r="D60" t="s">
-        <v>521</v>
-      </c>
-    </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D61" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D62" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>527</v>
+      <c r="A63" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D63" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>110</v>
+      <c r="A64" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D64" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>111</v>
+        <v>521</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>112</v>
+        <v>522</v>
       </c>
       <c r="C65" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3748,2012 +3718,2012 @@
         <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D66" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D67" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>536</v>
+        <v>149</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>537</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D68" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D69" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D70" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D71" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D72" t="s">
-        <v>547</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D73" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D74" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D76" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D77" t="s">
-        <v>556</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D78" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D79" t="s">
-        <v>560</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D80" t="s">
-        <v>166</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D81" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>564</v>
+        <v>777</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D83" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D84" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C85" t="s">
-        <v>792</v>
+        <v>558</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D86" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C87" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D87" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D88" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C89" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D89" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D90" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D91" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D92" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D93" t="s">
-        <v>584</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>575</v>
+      </c>
+      <c r="D94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>576</v>
+      </c>
+      <c r="D95" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" t="s">
+        <v>578</v>
+      </c>
+      <c r="D96" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B97" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C94" t="s">
-        <v>585</v>
-      </c>
-      <c r="D94" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" t="s">
-        <v>587</v>
-      </c>
-      <c r="D95" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" t="s">
-        <v>589</v>
-      </c>
-      <c r="D96" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="C97" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D97" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D98" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>583</v>
+      </c>
+      <c r="D99" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>585</v>
+      </c>
+      <c r="D100" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" t="s">
+        <v>587</v>
+      </c>
+      <c r="D101" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B102" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C99" t="s">
-        <v>593</v>
-      </c>
-      <c r="D99" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" t="s">
-        <v>595</v>
-      </c>
-      <c r="D100" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" t="s">
-        <v>596</v>
-      </c>
-      <c r="D101" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="C102" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D102" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>207</v>
+        <v>134</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C103" t="s">
+        <v>591</v>
+      </c>
+      <c r="D103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>593</v>
+      </c>
+      <c r="D104" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" t="s">
+        <v>560</v>
+      </c>
+      <c r="D105" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" t="s">
+        <v>595</v>
+      </c>
+      <c r="D107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C108" t="s">
+        <v>596</v>
+      </c>
+      <c r="D108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" t="s">
+        <v>599</v>
+      </c>
+      <c r="D109" t="s">
         <v>600</v>
-      </c>
-      <c r="D103" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" t="s">
-        <v>602</v>
-      </c>
-      <c r="D104" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C105" t="s">
-        <v>604</v>
-      </c>
-      <c r="D105" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C106" t="s">
-        <v>606</v>
-      </c>
-      <c r="D106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C107" t="s">
-        <v>608</v>
-      </c>
-      <c r="D107" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" t="s">
-        <v>575</v>
-      </c>
-      <c r="D108" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C110" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D110" t="s">
-        <v>239</v>
+        <v>602</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>612</v>
+        <v>238</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>613</v>
+        <v>239</v>
       </c>
       <c r="C111" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
+        <v>604</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>614</v>
+        <v>449</v>
       </c>
       <c r="D112" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C113" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D113" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C114" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="D114" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" t="s">
+        <v>642</v>
+      </c>
+      <c r="D115" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B116" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C115" t="s">
-        <v>459</v>
-      </c>
-      <c r="D115" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="C116" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="D116" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C117" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="D117" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" t="s">
+        <v>613</v>
+      </c>
+      <c r="D118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B119" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C118" t="s">
-        <v>657</v>
-      </c>
-      <c r="D118" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>257</v>
-      </c>
       <c r="C119" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D119" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C120" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D120" t="s">
-        <v>627</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D121" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>262</v>
+        <v>618</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>263</v>
+        <v>619</v>
       </c>
       <c r="C122" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D122" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C123" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D123" t="s">
-        <v>264</v>
+        <v>623</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>267</v>
+      <c r="A124" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D124" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>633</v>
+        <v>262</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>634</v>
+        <v>263</v>
       </c>
       <c r="C125" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D125" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D126" t="s">
-        <v>638</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="C127" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D127" t="s">
-        <v>212</v>
+        <v>629</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C128" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D128" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129" t="s">
+        <v>632</v>
+      </c>
+      <c r="D129" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C129" t="s">
-        <v>642</v>
-      </c>
-      <c r="D129" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>275</v>
-      </c>
       <c r="C130" t="s">
-        <v>643</v>
+        <v>531</v>
       </c>
       <c r="D130" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D131" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C132" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D132" t="s">
-        <v>648</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>546</v>
+        <v>638</v>
       </c>
       <c r="D133" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D134" t="s">
-        <v>651</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C135" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="D135" t="s">
-        <v>284</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C136" t="s">
-        <v>653</v>
+        <v>421</v>
       </c>
       <c r="D136" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C137" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="D137" t="s">
-        <v>288</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C138" t="s">
+        <v>601</v>
+      </c>
+      <c r="D138" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B139" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="C138" t="s">
-        <v>656</v>
-      </c>
-      <c r="D138" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="C139" t="s">
-        <v>429</v>
+        <v>648</v>
       </c>
       <c r="D139" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C140" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D140" t="s">
-        <v>661</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" t="s">
+        <v>652</v>
+      </c>
+      <c r="D141" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C142" t="s">
+        <v>653</v>
+      </c>
+      <c r="D142" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B143" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="C141" t="s">
-        <v>616</v>
-      </c>
-      <c r="D141" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C142" t="s">
-        <v>663</v>
-      </c>
-      <c r="D142" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>215</v>
-      </c>
       <c r="C143" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="D143" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="C144" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="D144" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>303</v>
+      <c r="A145" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="C145" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="D145" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>305</v>
+      <c r="A146" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="C146" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="D146" t="s">
-        <v>304</v>
+        <v>660</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C147" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="D147" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>219</v>
+      <c r="A148" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="C148" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D148" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C149" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D149" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C150" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D150" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C151" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="D151" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C152" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D152" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>222</v>
+        <v>778</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C153" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D153" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="D154" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="C155" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="D155" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>793</v>
+        <v>308</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="C156" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="D156" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D157" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="D158" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>316</v>
+        <v>686</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>317</v>
+        <v>687</v>
       </c>
       <c r="C159" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="D159" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C160" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="D160" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D161" t="s">
-        <v>699</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>701</v>
+        <v>318</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>702</v>
+        <v>319</v>
       </c>
       <c r="C162" t="s">
-        <v>700</v>
+        <v>601</v>
       </c>
       <c r="D162" t="s">
-        <v>701</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C163" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="D163" t="s">
-        <v>704</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>324</v>
+        <v>221</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>325</v>
+        <v>222</v>
       </c>
       <c r="C164" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="D164" t="s">
-        <v>324</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C165" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="D165" t="s">
-        <v>326</v>
+        <v>694</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C166" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="D166" t="s">
-        <v>328</v>
+        <v>696</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C167" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D167" t="s">
-        <v>229</v>
+        <v>698</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>331</v>
+        <v>226</v>
       </c>
       <c r="C168" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D168" t="s">
-        <v>709</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C169" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D169" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="C170" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D170" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D171" t="s">
-        <v>233</v>
+        <v>705</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>334</v>
+        <v>706</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>335</v>
+        <v>707</v>
       </c>
       <c r="C172" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D172" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>337</v>
+      <c r="A173" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="C173" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D173" t="s">
-        <v>718</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>339</v>
+      <c r="A174" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="C174" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D174" t="s">
-        <v>720</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>721</v>
+        <v>334</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>722</v>
+        <v>335</v>
       </c>
       <c r="C175" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D175" t="s">
-        <v>721</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>341</v>
+      <c r="A176" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="C176" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="D176" t="s">
-        <v>340</v>
+        <v>713</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>236</v>
+      <c r="A177" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="C177" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="D177" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C178" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="D178" t="s">
-        <v>342</v>
+        <v>716</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C179" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="D179" t="s">
-        <v>728</v>
+        <v>342</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C180" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="D180" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C181" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="D181" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C182" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="D182" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C183" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="D183" t="s">
-        <v>352</v>
+        <v>723</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C184" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D184" t="s">
-        <v>735</v>
+        <v>352</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C185" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="D185" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C186" t="s">
+        <v>726</v>
+      </c>
+      <c r="D186" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B187" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C186" t="s">
-        <v>737</v>
-      </c>
-      <c r="D186" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>361</v>
-      </c>
       <c r="C187" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D187" t="s">
-        <v>360</v>
+        <v>729</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>362</v>
+        <v>229</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>363</v>
+        <v>230</v>
       </c>
       <c r="C188" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D188" t="s">
-        <v>362</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C189" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="D189" t="s">
-        <v>742</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>367</v>
+      <c r="A190" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>363</v>
       </c>
       <c r="C190" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="D190" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>238</v>
+        <v>365</v>
       </c>
       <c r="C191" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="D191" t="s">
-        <v>237</v>
+        <v>735</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C192" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D192" t="s">
-        <v>368</v>
+        <v>736</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C193" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D193" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C194" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="D194" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C195" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D195" t="s">
-        <v>751</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C196" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="D196" t="s">
-        <v>754</v>
+        <v>374</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C197" t="s">
-        <v>755</v>
+        <v>640</v>
       </c>
       <c r="D197" t="s">
-        <v>756</v>
+        <v>376</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C198" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="D198" t="s">
-        <v>380</v>
+        <v>744</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C199" t="s">
+        <v>745</v>
+      </c>
+      <c r="D199" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B200" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="C199" t="s">
-        <v>794</v>
-      </c>
-      <c r="D199" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>385</v>
-      </c>
       <c r="C200" t="s">
-        <v>655</v>
+        <v>746</v>
       </c>
       <c r="D200" t="s">
-        <v>384</v>
+        <v>747</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C201" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D201" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C202" t="s">
+        <v>750</v>
+      </c>
+      <c r="D202" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>505</v>
+      </c>
+      <c r="D204" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B205" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C205" t="s">
+        <v>751</v>
+      </c>
+      <c r="D205" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C206" t="s">
+        <v>507</v>
+      </c>
+      <c r="D206" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C207" t="s">
+        <v>754</v>
+      </c>
+      <c r="D207" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C208" t="s">
+        <v>755</v>
+      </c>
+      <c r="D208" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C209" t="s">
+        <v>757</v>
+      </c>
+      <c r="D209" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C210" t="s">
+        <v>759</v>
+      </c>
+      <c r="D210" t="s">
         <v>760</v>
-      </c>
-      <c r="D202" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="C203" t="s">
-        <v>761</v>
-      </c>
-      <c r="D203" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C204" t="s">
-        <v>763</v>
-      </c>
-      <c r="D204" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C205" t="s">
-        <v>765</v>
-      </c>
-      <c r="D205" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C207" t="s">
-        <v>520</v>
-      </c>
-      <c r="D207" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C208" t="s">
-        <v>766</v>
-      </c>
-      <c r="D208" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C209" t="s">
-        <v>522</v>
-      </c>
-      <c r="D209" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B210" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C210" t="s">
-        <v>769</v>
-      </c>
-      <c r="D210" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C211" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D211" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5764,150 +5734,108 @@
         <v>400</v>
       </c>
       <c r="C212" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D212" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C213" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D213" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C214" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D214" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C215" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="D215" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C216" t="s">
-        <v>780</v>
+        <v>449</v>
       </c>
       <c r="D216" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C217" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="D217" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C218" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D218" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C219" t="s">
-        <v>459</v>
+        <v>774</v>
       </c>
       <c r="D219" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="B220" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C220" t="s">
-        <v>785</v>
-      </c>
-      <c r="D220" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="B221" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="C221" t="s">
-        <v>787</v>
-      </c>
-      <c r="D221" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="C222" t="s">
-        <v>789</v>
-      </c>
-      <c r="D222" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
